--- a/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
+++ b/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/Github/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A74A3B-AB68-9842-876E-20B3CEE1B2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91302380-5C21-8F43-9536-7C9A33E0C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="1140" windowWidth="34160" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="492">
   <si>
     <t>proposal</t>
   </si>
@@ -1417,73 +1417,85 @@
     <t>JUNE 2022 Chair's text</t>
   </si>
   <si>
+    <t>Chair's text - June 2022</t>
+  </si>
+  <si>
+    <t>Chair's text (June) - Final draft</t>
+  </si>
+  <si>
+    <t>Final agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most ambitous scenario considering only subsidy types that fall directly under the scope of the final agreement, excluding those subtypes that include port construction and infrastructure. </t>
+  </si>
+  <si>
+    <t>Most ambitious scenario - elimination of subsidies covered by the scope of the agreement</t>
+  </si>
+  <si>
+    <t>WT/MIN(22)/W/20</t>
+  </si>
+  <si>
+    <t>Second Draft agreement - MC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Chair's text considered Members' comments and views in all discussions based on the previous consolidated draft documents (TN/RL/W/276 and Revs. 1 &amp; 2). This new text aims to capture the progress that Members have made since WT/MIN(21)/W/5 was issued. This text also suggests compromises on outstanding issues, meaning that it contains some new langugage. This text is without predudice of the position of any Member in respect of any issue. </t>
+  </si>
+  <si>
+    <t>Ministerial Conference Decision</t>
+  </si>
+  <si>
+    <t>Ministerial Conference - Agreement on Fisheries Subsidies - Ministerial Decision - June 17, 2022</t>
+  </si>
+  <si>
+    <t>Final text of the agreement agreed by Trade Ministers at the 12 WTO Ministerial Conference</t>
+  </si>
+  <si>
+    <t>Subsidies granted by developing and LDC Members shall be allowed for fishing in their own EEZ. As written, this exemption would only apply for a transition period of 2 years, but for the purposes of modeling we assume it to apply indefinitely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidies granted by developing and LDC Members shall be allowed for fishing in their own EEZ. As written, this exemption would only apply for a transition period of 2 years, but for the purposes of mdeling we assume it to apply indefinitely. </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could only be acquired by vessels fulfilling our management criteria. We note that this may still be a conservative interpretation of this text because our management criteria are determined based on the location in which the fishing takes place, as opposed to by the flag- or subsidizing Member state.&lt;/li&gt;&lt;li&gt;This text would also prohibit subsidies to fishing in areas beyond the subsidizing Member's national jurisdiction.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas or in the EEZs of other coastal states to be prohibited. We note that this may be an amibitious interpretation of the prohibition on subsidies to fishing in areas beyond national jurisdictions.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for low income, resource-poor, or livelihood fishing in their territorial seas. For the purposes of modeling, we provide this exemption for developing countries for all fishing in their territorial waters (Note: as written the text also includes as an alternative 24 nautical miles but this is not modeled) unless they are responsible for more than 10% of annual global marine capture production. Developing Members responsible for less than 0.8% of global marine capture production will also be allowed to continue providing subsidies for fishing in their EEZs and in the areas of competence of RFMO/As as per the most recent published FAO data. As written, developing Members not meeting this criteria may also be allowed to provide subsidies for fishing in their EEZs and in the areas of competence of RFMO/As for a transition period, but this is not modeled.</t>
+  </si>
+  <si>
+    <t>TER10/CAP08</t>
+  </si>
+  <si>
+    <t>Boat construction and modernization, Fisheries development projects, Non-fuel tax exemptions, Fishing access agreements, Fuel subsidies, Fisher assistance, Vessel buyback programs, Rural fisher communities</t>
+  </si>
+  <si>
+    <t>B1, B2, B5, B6, B7, C1, C2, C3</t>
+  </si>
+  <si>
+    <t>Most ambitious scenario - limited subsidy scope</t>
+  </si>
+  <si>
+    <t>Final Fisheries Subsidies Agreement [no HS prohibition]</t>
+  </si>
+  <si>
+    <t>Final WTO Fisheries Subsidies Agreement - can't model HS portion because it's difficult to determine "unregulated HS"</t>
+  </si>
+  <si>
+    <t>WT/MIN(22)/W/22 | No prohibition for HS fishing</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale wehther vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond Members' national jurisdictions. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. We note that this may be an amibitious interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale wehther vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that subsidies to vessels fishing beyond Members' national jurisdictions are allowed. We note that this may be a conservative interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Final Fisheries Subsidies Agreement</t>
+  </si>
+  <si>
+    <t>WT/MIN(22)/W/22</t>
+  </si>
+  <si>
     <t>Final WTO Fisheries Subsidies Agreement</t>
-  </si>
-  <si>
-    <t>Chair's text - June 2022</t>
-  </si>
-  <si>
-    <t>Chair's text (June) - Final draft</t>
-  </si>
-  <si>
-    <t>Final agreement</t>
-  </si>
-  <si>
-    <t>Final Fisheries Subsidies Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most ambitous scenario considering only subsidy types that fall directly under the scope of the final agreement, excluding those subtypes that include port construction and infrastructure. </t>
-  </si>
-  <si>
-    <t>Most ambitious scenario - elimination of subsidies covered by the scope of the agreement</t>
-  </si>
-  <si>
-    <t>WT/MIN(22)/W/20</t>
-  </si>
-  <si>
-    <t>Second Draft agreement - MC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Chair's text considered Members' comments and views in all discussions based on the previous consolidated draft documents (TN/RL/W/276 and Revs. 1 &amp; 2). This new text aims to capture the progress that Members have made since WT/MIN(21)/W/5 was issued. This text also suggests compromises on outstanding issues, meaning that it contains some new langugage. This text is without predudice of the position of any Member in respect of any issue. </t>
-  </si>
-  <si>
-    <t>WT/MIN(22)/W/22</t>
-  </si>
-  <si>
-    <t>Ministerial Conference Decision</t>
-  </si>
-  <si>
-    <t>Ministerial Conference - Agreement on Fisheries Subsidies - Ministerial Decision - June 17, 2022</t>
-  </si>
-  <si>
-    <t>Final text of the agreement agreed by Trade Ministers at the 12 WTO Ministerial Conference</t>
-  </si>
-  <si>
-    <t>Subsidies granted by developing and LDC Members shall be allowed for fishing in their own EEZ. As written, this exemption would only apply for a transition period of 2 years, but for the purposes of modeling we assume it to apply indefinitely.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsidies granted by developing and LDC Members shall be allowed for fishing in their own EEZ. As written, this exemption would only apply for a transition period of 2 years, but for the purposes of mdeling we assume it to apply indefinitely. </t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could only be acquired by vessels fulfilling our management criteria. We note that this may still be a conservative interpretation of this text because our management criteria are determined based on the location in which the fishing takes place, as opposed to by the flag- or subsidizing Member state.&lt;/li&gt;&lt;li&gt;This text would also prohibit subsidies to fishing in areas beyond the subsidizing Member's national jurisdiction.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas or in the EEZs of other coastal states to be prohibited. We note that this may be an amibitious interpretation of the prohibition on subsidies to fishing in areas beyond national jurisdictions.&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for low income, resource-poor, or livelihood fishing in their territorial seas. For the purposes of modeling, we provide this exemption for developing countries for all fishing in their territorial waters (Note: as written the text also includes as an alternative 24 nautical miles but this is not modeled) unless they are responsible for more than 10% of annual global marine capture production. Developing Members responsible for less than 0.8% of global marine capture production will also be allowed to continue providing subsidies for fishing in their EEZs and in the areas of competence of RFMO/As as per the most recent published FAO data. As written, developing Members not meeting this criteria may also be allowed to provide subsidies for fishing in their EEZs and in the areas of competence of RFMO/As for a transition period, but this is not modeled.</t>
-  </si>
-  <si>
-    <t>TER10/CAP08</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale wehther vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas or in the EEZs of other coastal states to be prohibited. We note that this may be an amibitious interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>Boat construction and modernization, Fisheries development projects, Non-fuel tax exemptions, Fishing access agreements, Fuel subsidies, Fisher assistance, Vessel buyback programs, Rural fisher communities</t>
-  </si>
-  <si>
-    <t>B1, B2, B5, B6, B7, C1, C2, C3</t>
-  </si>
-  <si>
-    <t>Most ambitious scenario - limited subsidy scope</t>
   </si>
 </sst>
 </file>
@@ -2447,11 +2459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV54"/>
+  <dimension ref="A1:CV55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8145,16 +8157,16 @@
         <v>464</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F51" s="9">
         <v>44722</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>39</v>
@@ -8163,28 +8175,28 @@
         <v>330</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L51" s="20" t="s">
         <v>453</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N51" s="20" t="s">
         <v>446</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q51" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="R51" s="20" t="s">
         <v>38</v>
@@ -8269,7 +8281,7 @@
         <v>157</v>
       </c>
       <c r="BR51" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="BU51" s="8" t="s">
         <v>150</v>
@@ -8286,46 +8298,46 @@
         <v>302</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F52" s="9">
         <v>44729</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L52" s="20" t="s">
         <v>453</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>446</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q52" s="20" t="s">
         <v>236</v>
@@ -8394,7 +8406,7 @@
         <v>181</v>
       </c>
       <c r="BF52" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BH52" s="8">
         <v>5</v>
@@ -8408,51 +8420,119 @@
     </row>
     <row r="53" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>39</v>
+        <v>463</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>485</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>467</v>
+      </c>
       <c r="E53" s="10" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F53" s="9">
-        <v>44775</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H53" s="7" t="s">
+        <v>44729</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="I53" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>475</v>
+      </c>
       <c r="L53" s="20" t="s">
-        <v>238</v>
+        <v>453</v>
+      </c>
+      <c r="M53" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>238</v>
+        <v>446</v>
+      </c>
+      <c r="O53" s="20" t="s">
+        <v>477</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>485</v>
+        <v>488</v>
+      </c>
+      <c r="Q53" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="R53" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="V53" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="Y53" s="8" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="Z53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI53" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ53" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN53" s="8">
+        <v>5</v>
       </c>
       <c r="AQ53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD53" s="8" t="s">
-        <v>486</v>
+        <v>157</v>
+      </c>
+      <c r="AR53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ53" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="BE53" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="BH53" s="8">
+        <v>5</v>
+      </c>
       <c r="BL53" s="8" t="s">
         <v>150</v>
       </c>
@@ -8460,212 +8540,266 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:100" ht="42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F54" s="9">
+        <v>44775</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="G54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>39</v>
+      <c r="L54" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="P54" s="20" t="s">
+        <v>481</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="U54" s="8">
-        <v>20</v>
-      </c>
-      <c r="V54" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="Y54" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Z54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AF54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AJ54" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AN54" s="8">
-        <v>24</v>
-      </c>
-      <c r="AO54" s="8">
-        <v>100</v>
-      </c>
-      <c r="AP54" s="8">
-        <v>400</v>
-      </c>
       <c r="AQ54" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AR54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AU54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AV54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AY54" s="8">
-        <v>5</v>
-      </c>
-      <c r="AZ54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB54" s="8">
-        <v>5</v>
-      </c>
-      <c r="BC54" s="8">
-        <v>5</v>
+      <c r="BD54" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="BE54" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="BH54" s="8">
+      <c r="BL54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY54" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:100" ht="42" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="G55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="U55" s="8">
+        <v>20</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB55" s="8">
         <v>5</v>
       </c>
-      <c r="BI54" s="8">
+      <c r="AC55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE55" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH55" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM55" s="8">
+        <v>5</v>
+      </c>
+      <c r="AN55" s="8">
         <v>24</v>
       </c>
-      <c r="BJ54" s="8">
+      <c r="AO55" s="8">
         <v>100</v>
       </c>
-      <c r="BK54" s="8">
+      <c r="AP55" s="8">
         <v>400</v>
       </c>
-      <c r="BL54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO54" s="8">
+      <c r="AQ55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT55" s="8">
         <v>5</v>
       </c>
-      <c r="BP54" s="8">
+      <c r="AU55" s="8">
         <v>5</v>
       </c>
-      <c r="BQ54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BS54" s="8">
+      <c r="AV55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX55" s="8">
         <v>5</v>
       </c>
-      <c r="BT54" s="8">
+      <c r="AY55" s="8">
         <v>5</v>
       </c>
-      <c r="BU54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BW54" s="8">
+      <c r="AZ55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB55" s="8">
         <v>5</v>
       </c>
-      <c r="BX54" s="8">
+      <c r="BC55" s="8">
         <v>5</v>
       </c>
-      <c r="BY54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BZ54" s="8" t="s">
+      <c r="BE55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH55" s="8">
+        <v>5</v>
+      </c>
+      <c r="BI55" s="8">
+        <v>24</v>
+      </c>
+      <c r="BJ55" s="8">
+        <v>100</v>
+      </c>
+      <c r="BK55" s="8">
+        <v>400</v>
+      </c>
+      <c r="BL55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO55" s="8">
+        <v>5</v>
+      </c>
+      <c r="BP55" s="8">
+        <v>5</v>
+      </c>
+      <c r="BQ55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS55" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT55" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BW55" s="8">
+        <v>5</v>
+      </c>
+      <c r="BX55" s="8">
+        <v>5</v>
+      </c>
+      <c r="BY55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BZ55" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="CA54" s="8" t="s">
+      <c r="CA55" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="CB54" s="8" t="s">
+      <c r="CB55" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="CC54" s="8">
+      <c r="CC55" s="8">
         <v>0.7</v>
       </c>
-      <c r="CD54" s="8" t="s">
+      <c r="CD55" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="CE54" s="8" t="s">
+      <c r="CE55" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="CF54" s="8">
+      <c r="CF55" s="8">
         <v>50</v>
       </c>
-      <c r="CG54" s="14">
+      <c r="CG55" s="14">
         <v>5</v>
       </c>
-      <c r="CH54" s="14">
+      <c r="CH55" s="14">
         <v>5</v>
       </c>
-      <c r="CI54" s="14">
+      <c r="CI55" s="14">
         <v>5</v>
       </c>
-      <c r="CJ54" s="14">
+      <c r="CJ55" s="14">
         <v>5</v>
       </c>
-      <c r="CK54" s="8" t="s">
+      <c r="CK55" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="CL54" s="8">
+      <c r="CL55" s="8">
         <v>5</v>
       </c>
-      <c r="CM54" s="8">
+      <c r="CM55" s="8">
         <v>5</v>
       </c>
-      <c r="CN54" s="14">
+      <c r="CN55" s="14">
         <v>5</v>
       </c>
-      <c r="CO54" s="14">
+      <c r="CO55" s="14">
         <v>5</v>
       </c>
-      <c r="CP54" s="14">
+      <c r="CP55" s="14">
         <v>5</v>
       </c>
-      <c r="CQ54" s="8" t="s">
+      <c r="CQ55" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="CR54" s="8">
+      <c r="CR55" s="8">
         <v>5</v>
       </c>
-      <c r="CS54" s="8">
+      <c r="CS55" s="8">
         <v>5</v>
       </c>
-      <c r="CT54" s="14">
+      <c r="CT55" s="14">
         <v>5</v>
       </c>
-      <c r="CU54" s="14">
+      <c r="CU55" s="14">
         <v>5</v>
       </c>
-      <c r="CV54" s="14">
+      <c r="CV55" s="14">
         <v>5</v>
       </c>
     </row>

--- a/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
+++ b/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/Github/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91302380-5C21-8F43-9536-7C9A33E0C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8778F8-5738-9441-856B-0DFD46C9151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="1140" windowWidth="34160" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1438,9 +1438,6 @@
     <t>Second Draft agreement - MC12</t>
   </si>
   <si>
-    <t xml:space="preserve">This Chair's text considered Members' comments and views in all discussions based on the previous consolidated draft documents (TN/RL/W/276 and Revs. 1 &amp; 2). This new text aims to capture the progress that Members have made since WT/MIN(21)/W/5 was issued. This text also suggests compromises on outstanding issues, meaning that it contains some new langugage. This text is without predudice of the position of any Member in respect of any issue. </t>
-  </si>
-  <si>
     <t>Ministerial Conference Decision</t>
   </si>
   <si>
@@ -1486,9 +1483,6 @@
     <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale wehther vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond Members' national jurisdictions. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. We note that this may be an amibitious interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale wehther vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that subsidies to vessels fishing beyond Members' national jurisdictions are allowed. We note that this may be a conservative interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>Final Fisheries Subsidies Agreement</t>
   </si>
   <si>
@@ -1496,6 +1490,12 @@
   </si>
   <si>
     <t>Final WTO Fisheries Subsidies Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Chair's text considered Members' comments and views in all discussions based on the previous consolidated draft documents (TN/RL/W/276 and Revs. 1 &amp; 2). This new text aims to capture the progress that Members have made since WT/MIN(21)/W/5 was issued. This text also suggests compromises on outstanding issues, meaning that it contains some new language. This text is without prejudice of the position of any Member in respect of any issue. </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that subsidies to vessels fishing beyond Members' national jurisdictions are allowed. We note that this may be a conservative interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -2027,27 +2027,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2059,7 +2053,7 @@
     <xf numFmtId="15" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2068,28 +2062,25 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2100,9 +2091,6 @@
     </xf>
     <xf numFmtId="15" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2461,35 +2449,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="10.83203125" style="7"/>
-    <col min="3" max="3" width="40.6640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="8"/>
-    <col min="7" max="7" width="19.1640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="8"/>
-    <col min="10" max="10" width="28" style="8" customWidth="1"/>
-    <col min="11" max="11" width="64.1640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="68.83203125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="41.83203125" style="20" customWidth="1"/>
-    <col min="14" max="16" width="68.83203125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="42.1640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="68.83203125" style="20" customWidth="1"/>
-    <col min="19" max="84" width="10.83203125" style="8"/>
-    <col min="85" max="88" width="10.83203125" style="14"/>
-    <col min="89" max="91" width="10.83203125" style="8"/>
-    <col min="92" max="94" width="10.83203125" style="14"/>
-    <col min="95" max="97" width="10.83203125" style="8"/>
-    <col min="98" max="100" width="10.83203125" style="14"/>
-    <col min="101" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="40.6640625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="19.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="10" max="10" width="28" style="6" customWidth="1"/>
+    <col min="11" max="11" width="64.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="68.83203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="41.83203125" style="17" customWidth="1"/>
+    <col min="14" max="16" width="68.83203125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="42.1640625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="68.83203125" style="17" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
@@ -2499,7 +2481,7 @@
       <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2526,25 +2508,25 @@
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="16" t="s">
         <v>232</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -2795,1812 +2777,1812 @@
       </c>
     </row>
     <row r="2" spans="1:100" s="3" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>43545</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ2" s="8" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CA2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CB2" s="8" t="s">
+      <c r="CB2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="15" t="s">
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="14">
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6">
         <v>10</v>
       </c>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="8" t="s">
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="CM2" s="8">
+      <c r="CM2" s="6">
         <v>20</v>
       </c>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="8" t="s">
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8">
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6">
         <v>30</v>
       </c>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
     </row>
     <row r="3" spans="1:100" ht="168" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>43573</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI3" s="8" t="s">
+      <c r="Y3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI3" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY3" s="8" t="s">
+      <c r="AQ3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY3" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:100" ht="252" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>43620</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ4" s="8" t="s">
+      <c r="Y4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ4" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="CA4" s="8" t="s">
+      <c r="CA4" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="CB4" s="8" t="s">
+      <c r="CB4" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="CE4" s="8" t="s">
+      <c r="CE4" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="CH4" s="14">
+      <c r="CH4" s="6">
         <v>55</v>
       </c>
-      <c r="CI4" s="14">
+      <c r="CI4" s="6">
         <v>2.1</v>
       </c>
-      <c r="CJ4" s="14">
+      <c r="CJ4" s="6">
         <v>55</v>
       </c>
-      <c r="CK4" s="8" t="s">
+      <c r="CK4" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:100" ht="196" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>43621</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI5" s="8" t="s">
+      <c r="Y5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI5" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ5" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL5" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY5" s="8" t="s">
+      <c r="AQ5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY5" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>43628</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V6" s="8" t="s">
+      <c r="T6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY6" s="8" t="s">
+      <c r="Y6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY6" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:100" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>43643</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD7" s="8" t="s">
+      <c r="Y7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD7" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE7" s="8" t="s">
+      <c r="BE7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF7" s="8" t="s">
+      <c r="BF7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH7" s="8">
+      <c r="BH7" s="6">
         <v>5</v>
       </c>
-      <c r="BL7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY7" s="8" t="s">
+      <c r="BL7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY7" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>43648</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD8" s="8" t="s">
+      <c r="Y8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BE8" s="8" t="s">
+      <c r="BE8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF8" s="8" t="s">
+      <c r="BF8" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="BH8" s="8">
+      <c r="BH8" s="6">
         <v>5</v>
       </c>
-      <c r="BL8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN8" s="8" t="s">
+      <c r="BL8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY8" s="8" t="s">
+      <c r="BQ8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY8" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:100" ht="154" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>43648</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI9" s="8" t="s">
+      <c r="Y9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI9" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ9" s="8" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK9" s="8" t="s">
+      <c r="AK9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="AQ9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY9" s="8" t="s">
+      <c r="AQ9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY9" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>43657</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="Y10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY10" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ10" s="8" t="s">
+      <c r="Y10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ10" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="CA10" s="8" t="s">
+      <c r="CA10" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CB10" s="8" t="s">
+      <c r="CB10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="CD10" s="8" t="s">
+      <c r="CD10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CE10" s="8" t="s">
+      <c r="CE10" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="CG10" s="14">
+      <c r="CG10" s="6">
         <v>50</v>
       </c>
-      <c r="CK10" s="8" t="s">
+      <c r="CK10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="CL10" s="8">
+      <c r="CL10" s="6">
         <v>50</v>
       </c>
-      <c r="CQ10" s="8" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:100" ht="126" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>43684</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y11" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ11" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD11" s="8" t="s">
+      <c r="Y11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE11" s="8" t="s">
+      <c r="BE11" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF11" s="8" t="s">
+      <c r="BF11" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="BI11" s="8">
+      <c r="BI11" s="6">
         <v>24</v>
       </c>
-      <c r="BJ11" s="8">
+      <c r="BJ11" s="6">
         <v>100</v>
       </c>
-      <c r="BK11" s="8">
+      <c r="BK11" s="6">
         <v>130</v>
       </c>
-      <c r="BL11" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY11" s="8" t="s">
+      <c r="BL11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY11" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>43718</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="T12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V12" s="8" t="s">
+      <c r="T12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY12" s="8" t="s">
+      <c r="Y12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY12" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:100" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>43759</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD13" s="8" t="s">
+      <c r="Y13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD13" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE13" s="8" t="s">
+      <c r="BE13" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF13" s="8" t="s">
+      <c r="BF13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="BL13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY13" s="8" t="s">
+      <c r="BL13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY13" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>43775</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI14" s="8" t="s">
+      <c r="Y14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ14" s="8" t="s">
+      <c r="AJ14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS14" s="8" t="s">
+      <c r="AQ14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY14" s="8" t="s">
+      <c r="AV14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>43801</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="T15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V15" s="8" t="s">
+      <c r="T15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA15" s="8" t="s">
+      <c r="Y15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD15" s="8" t="s">
+      <c r="AC15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD15" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY15" s="8" t="s">
+      <c r="AF15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY15" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:100" ht="70" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>43801</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>43801</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:100" ht="56" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>43802</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:100" ht="154" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>43803</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:100" ht="168" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>43803</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI20" s="8" t="s">
+      <c r="Y20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ20" s="8" t="s">
+      <c r="AJ20" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY20" s="8" t="s">
+      <c r="AQ20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY20" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>43803</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y21" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI21" s="8" t="s">
+      <c r="Y21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ21" s="8" t="s">
+      <c r="AJ21" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ21" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL21" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY21" s="8" t="s">
+      <c r="AQ21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY21" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:100" ht="266" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>43843</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y22" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI22" s="8" t="s">
+      <c r="Y22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI22" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ22" s="8" t="s">
+      <c r="AJ22" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ22" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD22" s="8" t="s">
+      <c r="AQ22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD22" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE22" s="8" t="s">
+      <c r="BE22" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF22" s="8" t="s">
+      <c r="BF22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BH22" s="8">
+      <c r="BH22" s="6">
         <v>5</v>
       </c>
-      <c r="BL22" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY22" s="8" t="s">
+      <c r="BL22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY22" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>43865</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="R23" s="20" t="s">
+      <c r="R23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="S23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="T23" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V23" s="8" t="s">
+      <c r="T23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V23" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y23" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ23" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL23" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY23" s="8" t="s">
+      <c r="Y23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY23" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:100" ht="182" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>43865</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD24" s="8" t="s">
+      <c r="Y24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BE24" s="8" t="s">
+      <c r="BE24" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF24" s="8" t="s">
+      <c r="BF24" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="BL24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN24" s="8" t="s">
+      <c r="BL24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN24" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY24" s="8" t="s">
+      <c r="BQ24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY24" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:100" ht="112" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -4609,7 +4591,7 @@
       <c r="E25" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>43890</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -4624,49 +4606,49 @@
       <c r="J25" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="R25" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="Y25" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ25" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL25" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY25" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ25" s="8" t="s">
+      <c r="Y25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="CA25" s="8" t="s">
+      <c r="CA25" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="CE25" s="8" t="s">
+      <c r="CE25" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4674,10 +4656,10 @@
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>275</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -4686,7 +4668,7 @@
       <c r="E26" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>43896</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -4704,28 +4686,28 @@
       <c r="K26" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q26" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="6" t="s">
         <v>156</v>
       </c>
       <c r="T26" s="3" t="s">
@@ -4778,7 +4760,7 @@
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
-      <c r="BD26" s="8" t="s">
+      <c r="BD26" s="6" t="s">
         <v>190</v>
       </c>
       <c r="BE26" s="3" t="s">
@@ -4797,7 +4779,7 @@
       <c r="BJ26" s="3">
         <v>100</v>
       </c>
-      <c r="BK26" s="8">
+      <c r="BK26" s="6">
         <v>130</v>
       </c>
       <c r="BL26" s="3" t="s">
@@ -4851,61 +4833,61 @@
       <c r="CV26" s="3"/>
     </row>
     <row r="27" spans="1:100" ht="318" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <v>43896</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="Q27" s="20" t="s">
+      <c r="Q27" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="R27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="6" t="s">
         <v>156</v>
       </c>
       <c r="T27" s="3" t="s">
@@ -4920,50 +4902,49 @@
       <c r="Y27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Z27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA27" s="7" t="s">
+      <c r="Z27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA27" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD27" s="7" t="s">
+      <c r="AC27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD27" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AF27" s="8" t="s">
+      <c r="AF27" s="6" t="s">
         <v>150</v>
       </c>
       <c r="AI27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AJ27" s="8" t="s">
+      <c r="AJ27" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK27" s="8" t="s">
+      <c r="AK27" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS27" s="8" t="s">
+      <c r="AQ27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS27" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AV27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW27" s="8" t="s">
+      <c r="AV27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW27" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AZ27" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD27" s="8" t="s">
+      <c r="AZ27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD27" s="6" t="s">
         <v>190</v>
       </c>
       <c r="BE27" s="3" t="s">
@@ -4972,48 +4953,48 @@
       <c r="BF27" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="BH27" s="8">
+      <c r="BH27" s="6">
         <v>5</v>
       </c>
       <c r="BI27" s="3">
         <v>24</v>
       </c>
-      <c r="BJ27" s="8">
+      <c r="BJ27" s="6">
         <v>100</v>
       </c>
-      <c r="BK27" s="8">
+      <c r="BK27" s="6">
         <v>130</v>
       </c>
-      <c r="BL27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN27" s="8" t="s">
+      <c r="BL27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN27" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR27" s="8" t="s">
+      <c r="BQ27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR27" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU27" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY27" s="8" t="s">
+      <c r="BU27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>313</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -5022,7 +5003,7 @@
       <c r="E28" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>44110</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -5037,84 +5018,84 @@
       <c r="J28" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="O28" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="Q28" s="21" t="s">
+      <c r="Q28" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="Y28" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ28" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL28" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY28" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ28" s="8" t="s">
+      <c r="Y28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CA28" s="8" t="s">
+      <c r="CA28" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="CE28" s="8" t="s">
+      <c r="CE28" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <v>44183</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="6" t="s">
         <v>373</v>
       </c>
       <c r="T29" s="3"/>
@@ -5129,1626 +5110,1626 @@
       <c r="BI29" s="3"/>
     </row>
     <row r="30" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <v>44183</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N30" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="O30" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="P30" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="Q30" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R30" s="20" t="s">
+      <c r="R30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V30" s="8" t="s">
+      <c r="T30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA30" s="8" t="s">
+      <c r="Y30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA30" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD30" s="8" t="s">
+      <c r="AC30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD30" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI30" s="8" t="s">
+      <c r="AF30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI30" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ30" s="8" t="s">
+      <c r="AJ30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK30" s="8" t="s">
+      <c r="AK30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS30" s="8" t="s">
+      <c r="AQ30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS30" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW30" s="8" t="s">
+      <c r="AV30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW30" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD30" s="8" t="s">
+      <c r="AZ30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD30" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE30" s="8" t="s">
+      <c r="BE30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF30" s="8" t="s">
+      <c r="BF30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH30" s="8">
+      <c r="BH30" s="6">
         <v>5</v>
       </c>
-      <c r="BL30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN30" s="8" t="s">
+      <c r="BL30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR30" s="8" t="s">
+      <c r="BQ30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR30" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY30" s="8" t="s">
+      <c r="BU30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY30" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>44183</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N31" s="20" t="s">
+      <c r="N31" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="O31" s="20" t="s">
+      <c r="O31" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P31" s="20" t="s">
+      <c r="P31" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R31" s="20" t="s">
+      <c r="R31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V31" s="8" t="s">
+      <c r="T31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA31" s="8" t="s">
+      <c r="Y31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD31" s="8" t="s">
+      <c r="AC31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI31" s="8" t="s">
+      <c r="AF31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI31" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ31" s="8" t="s">
+      <c r="AJ31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK31" s="8" t="s">
+      <c r="AK31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS31" s="8" t="s">
+      <c r="AQ31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW31" s="8" t="s">
+      <c r="AV31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD31" s="8" t="s">
+      <c r="AZ31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD31" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE31" s="8" t="s">
+      <c r="BE31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF31" s="8" t="s">
+      <c r="BF31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH31" s="8">
+      <c r="BH31" s="6">
         <v>5</v>
       </c>
-      <c r="BL31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN31" s="8" t="s">
+      <c r="BL31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR31" s="8" t="s">
+      <c r="BQ31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR31" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY31" s="8" t="s">
+      <c r="BU31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY31" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <v>44183</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P32" s="20" t="s">
+      <c r="P32" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q32" s="20" t="s">
+      <c r="Q32" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R32" s="20" t="s">
+      <c r="R32" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V32" s="8" t="s">
+      <c r="T32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA32" s="8" t="s">
+      <c r="Y32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD32" s="8" t="s">
+      <c r="AC32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI32" s="8" t="s">
+      <c r="AF32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI32" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ32" s="8" t="s">
+      <c r="AJ32" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK32" s="8" t="s">
+      <c r="AK32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS32" s="8" t="s">
+      <c r="AQ32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW32" s="8" t="s">
+      <c r="AV32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD32" s="8" t="s">
+      <c r="AZ32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD32" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE32" s="8" t="s">
+      <c r="BE32" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF32" s="8" t="s">
+      <c r="BF32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH32" s="8">
+      <c r="BH32" s="6">
         <v>5</v>
       </c>
-      <c r="BL32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN32" s="8" t="s">
+      <c r="BL32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR32" s="8" t="s">
+      <c r="BQ32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR32" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ32" s="8" t="s">
+      <c r="BU32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ32" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="CA32" s="8" t="s">
+      <c r="CA32" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="CB32" s="8" t="s">
+      <c r="CB32" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="CE32" s="8" t="s">
+      <c r="CE32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="CH32" s="14">
+      <c r="CH32" s="6">
         <v>55</v>
       </c>
-      <c r="CI32" s="14">
+      <c r="CI32" s="6">
         <v>2</v>
       </c>
-      <c r="CJ32" s="14">
+      <c r="CJ32" s="6">
         <v>55</v>
       </c>
-      <c r="CK32" s="8" t="s">
+      <c r="CK32" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <v>44183</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="O33" s="20" t="s">
+      <c r="O33" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P33" s="20" t="s">
+      <c r="P33" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="Q33" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R33" s="20" t="s">
+      <c r="R33" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T33" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V33" s="8" t="s">
+      <c r="T33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA33" s="8" t="s">
+      <c r="Y33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD33" s="8" t="s">
+      <c r="AC33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF33" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI33" s="8" t="s">
+      <c r="AF33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI33" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ33" s="8" t="s">
+      <c r="AJ33" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK33" s="8" t="s">
+      <c r="AK33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS33" s="8" t="s">
+      <c r="AQ33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW33" s="8" t="s">
+      <c r="AV33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ33" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD33" s="8" t="s">
+      <c r="AZ33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE33" s="8" t="s">
+      <c r="BE33" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF33" s="8" t="s">
+      <c r="BF33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH33" s="8">
+      <c r="BH33" s="6">
         <v>5</v>
       </c>
-      <c r="BL33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN33" s="8" t="s">
+      <c r="BL33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR33" s="8" t="s">
+      <c r="BQ33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR33" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU33" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ33" s="8" t="s">
+      <c r="BU33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ33" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="CA33" s="8" t="s">
+      <c r="CA33" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="CB33" s="8" t="s">
+      <c r="CB33" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="CE33" s="8" t="s">
+      <c r="CE33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="CH33" s="14">
+      <c r="CH33" s="6">
         <v>55</v>
       </c>
-      <c r="CI33" s="14">
+      <c r="CI33" s="6">
         <v>2</v>
       </c>
-      <c r="CJ33" s="14">
+      <c r="CJ33" s="6">
         <v>55</v>
       </c>
-      <c r="CK33" s="8" t="s">
+      <c r="CK33" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>44183</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="O34" s="20" t="s">
+      <c r="O34" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P34" s="20" t="s">
+      <c r="P34" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q34" s="20" t="s">
+      <c r="Q34" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R34" s="20" t="s">
+      <c r="R34" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T34" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V34" s="8" t="s">
+      <c r="T34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA34" s="8" t="s">
+      <c r="Y34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA34" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD34" s="8" t="s">
+      <c r="AC34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD34" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF34" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI34" s="8" t="s">
+      <c r="AF34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI34" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ34" s="8" t="s">
+      <c r="AJ34" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK34" s="8" t="s">
+      <c r="AK34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS34" s="8" t="s">
+      <c r="AQ34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS34" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW34" s="8" t="s">
+      <c r="AV34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW34" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ34" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD34" s="8" t="s">
+      <c r="AZ34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD34" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE34" s="8" t="s">
+      <c r="BE34" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF34" s="8" t="s">
+      <c r="BF34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH34" s="8">
+      <c r="BH34" s="6">
         <v>5</v>
       </c>
-      <c r="BL34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN34" s="8" t="s">
+      <c r="BL34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR34" s="8" t="s">
+      <c r="BQ34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR34" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU34" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ34" s="8" t="s">
+      <c r="BU34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ34" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="CA34" s="8" t="s">
+      <c r="CA34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CB34" s="8" t="s">
+      <c r="CB34" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="CD34" s="8" t="s">
+      <c r="CD34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CE34" s="8" t="s">
+      <c r="CE34" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="CG34" s="14">
+      <c r="CG34" s="6">
         <v>50</v>
       </c>
-      <c r="CK34" s="8" t="s">
+      <c r="CK34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="CL34" s="8">
+      <c r="CL34" s="6">
         <v>50</v>
       </c>
-      <c r="CQ34" s="8" t="s">
+      <c r="CQ34" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>44183</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N35" s="20" t="s">
+      <c r="N35" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="O35" s="20" t="s">
+      <c r="O35" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P35" s="20" t="s">
+      <c r="P35" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R35" s="20" t="s">
+      <c r="R35" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T35" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V35" s="8" t="s">
+      <c r="T35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA35" s="8" t="s">
+      <c r="Y35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA35" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD35" s="8" t="s">
+      <c r="AC35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD35" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF35" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI35" s="8" t="s">
+      <c r="AF35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI35" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ35" s="8" t="s">
+      <c r="AJ35" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK35" s="8" t="s">
+      <c r="AK35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS35" s="8" t="s">
+      <c r="AQ35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS35" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW35" s="8" t="s">
+      <c r="AV35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW35" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ35" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD35" s="8" t="s">
+      <c r="AZ35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD35" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE35" s="8" t="s">
+      <c r="BE35" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF35" s="8" t="s">
+      <c r="BF35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH35" s="8">
+      <c r="BH35" s="6">
         <v>5</v>
       </c>
-      <c r="BL35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN35" s="8" t="s">
+      <c r="BL35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR35" s="8" t="s">
+      <c r="BQ35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR35" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU35" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ35" s="8" t="s">
+      <c r="BU35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ35" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="CA35" s="8" t="s">
+      <c r="CA35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CB35" s="8" t="s">
+      <c r="CB35" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="CD35" s="8" t="s">
+      <c r="CD35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CE35" s="8" t="s">
+      <c r="CE35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="CG35" s="14">
+      <c r="CG35" s="6">
         <v>50</v>
       </c>
-      <c r="CK35" s="8" t="s">
+      <c r="CK35" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="CL35" s="8">
+      <c r="CL35" s="6">
         <v>50</v>
       </c>
-      <c r="CQ35" s="8" t="s">
+      <c r="CQ35" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <v>44183</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="O36" s="20" t="s">
+      <c r="O36" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P36" s="20" t="s">
+      <c r="P36" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q36" s="20" t="s">
+      <c r="Q36" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R36" s="20" t="s">
+      <c r="R36" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="S36" s="8" t="s">
+      <c r="S36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T36" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V36" s="8" t="s">
+      <c r="T36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V36" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA36" s="8" t="s">
+      <c r="Y36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD36" s="8" t="s">
+      <c r="AC36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF36" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI36" s="8" t="s">
+      <c r="AF36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI36" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ36" s="8" t="s">
+      <c r="AJ36" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK36" s="8" t="s">
+      <c r="AK36" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS36" s="8" t="s">
+      <c r="AQ36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW36" s="8" t="s">
+      <c r="AV36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ36" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD36" s="8" t="s">
+      <c r="AZ36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD36" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE36" s="8" t="s">
+      <c r="BE36" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF36" s="8" t="s">
+      <c r="BF36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH36" s="8">
+      <c r="BH36" s="6">
         <v>5</v>
       </c>
-      <c r="BL36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN36" s="8" t="s">
+      <c r="BL36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN36" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR36" s="8" t="s">
+      <c r="BQ36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR36" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU36" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ36" s="8" t="s">
+      <c r="BU36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ36" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="CA36" s="8" t="s">
+      <c r="CA36" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CB36" s="8" t="s">
+      <c r="CB36" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="CE36" s="15" t="s">
+      <c r="CE36" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="CG36" s="14">
+      <c r="CG36" s="6">
         <v>10</v>
       </c>
-      <c r="CK36" s="8" t="s">
+      <c r="CK36" s="6" t="s">
         <v>204</v>
       </c>
       <c r="CL36" s="3"/>
-      <c r="CM36" s="8">
+      <c r="CM36" s="6">
         <v>20</v>
       </c>
-      <c r="CQ36" s="8" t="s">
+      <c r="CQ36" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="CS36" s="8">
+      <c r="CS36" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="7">
         <v>44183</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="O37" s="20" t="s">
+      <c r="O37" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q37" s="20" t="s">
+      <c r="Q37" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R37" s="20" t="s">
+      <c r="R37" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="S37" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V37" s="8" t="s">
+      <c r="T37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA37" s="8" t="s">
+      <c r="Y37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD37" s="8" t="s">
+      <c r="AC37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI37" s="8" t="s">
+      <c r="AF37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI37" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ37" s="8" t="s">
+      <c r="AJ37" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK37" s="8" t="s">
+      <c r="AK37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS37" s="8" t="s">
+      <c r="AQ37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW37" s="8" t="s">
+      <c r="AV37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD37" s="8" t="s">
+      <c r="AZ37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD37" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE37" s="8" t="s">
+      <c r="BE37" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF37" s="8" t="s">
+      <c r="BF37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH37" s="8">
+      <c r="BH37" s="6">
         <v>5</v>
       </c>
-      <c r="BL37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN37" s="8" t="s">
+      <c r="BL37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR37" s="8" t="s">
+      <c r="BQ37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR37" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ37" s="8" t="s">
+      <c r="BU37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ37" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="CA37" s="8" t="s">
+      <c r="CA37" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CB37" s="8" t="s">
+      <c r="CB37" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="CE37" s="15" t="s">
+      <c r="CE37" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="CG37" s="14">
+      <c r="CG37" s="6">
         <v>10</v>
       </c>
-      <c r="CK37" s="8" t="s">
+      <c r="CK37" s="6" t="s">
         <v>204</v>
       </c>
       <c r="CL37" s="3"/>
-      <c r="CM37" s="8">
+      <c r="CM37" s="6">
         <v>20</v>
       </c>
-      <c r="CQ37" s="8" t="s">
+      <c r="CQ37" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="CS37" s="8">
+      <c r="CS37" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <v>44183</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P38" s="20" t="s">
+      <c r="P38" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R38" s="21" t="s">
+      <c r="R38" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="S38" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T38" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V38" s="8" t="s">
+      <c r="T38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA38" s="8" t="s">
+      <c r="Y38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD38" s="8" t="s">
+      <c r="AC38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF38" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI38" s="8" t="s">
+      <c r="AF38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ38" s="8" t="s">
+      <c r="AJ38" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK38" s="8" t="s">
+      <c r="AK38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS38" s="8" t="s">
+      <c r="AQ38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW38" s="8" t="s">
+      <c r="AV38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ38" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD38" s="8" t="s">
+      <c r="AZ38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD38" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE38" s="8" t="s">
+      <c r="BE38" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF38" s="8" t="s">
+      <c r="BF38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH38" s="8">
+      <c r="BH38" s="6">
         <v>5</v>
       </c>
-      <c r="BL38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN38" s="8" t="s">
+      <c r="BL38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR38" s="8" t="s">
+      <c r="BQ38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR38" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU38" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ38" s="8" t="s">
+      <c r="BU38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ38" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="CA38" s="8" t="s">
+      <c r="CA38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="CE38" s="8" t="s">
+      <c r="CE38" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>44183</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="N39" s="20" t="s">
+      <c r="N39" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="O39" s="20" t="s">
+      <c r="O39" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P39" s="20" t="s">
+      <c r="P39" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q39" s="20" t="s">
+      <c r="Q39" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="R39" s="21" t="s">
+      <c r="R39" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="S39" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V39" s="8" t="s">
+      <c r="T39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA39" s="8" t="s">
+      <c r="Y39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA39" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD39" s="8" t="s">
+      <c r="AC39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD39" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI39" s="8" t="s">
+      <c r="AF39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ39" s="8" t="s">
+      <c r="AJ39" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK39" s="8" t="s">
+      <c r="AK39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS39" s="8" t="s">
+      <c r="AQ39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS39" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW39" s="8" t="s">
+      <c r="AV39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW39" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD39" s="8" t="s">
+      <c r="AZ39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE39" s="8" t="s">
+      <c r="BE39" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF39" s="8" t="s">
+      <c r="BF39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH39" s="8">
+      <c r="BH39" s="6">
         <v>5</v>
       </c>
-      <c r="BL39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN39" s="8" t="s">
+      <c r="BL39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR39" s="8" t="s">
+      <c r="BQ39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR39" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ39" s="8" t="s">
+      <c r="BU39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="CA39" s="8" t="s">
+      <c r="CA39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="CE39" s="8" t="s">
+      <c r="CE39" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="4" t="s">
         <v>261</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>44246</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -6766,24 +6747,24 @@
       <c r="K40" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="P40" s="20" t="s">
+      <c r="P40" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>281</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -6792,7 +6773,7 @@
       <c r="E41" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>44249</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -6810,55 +6791,55 @@
       <c r="K41" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="L41" s="20" t="s">
+      <c r="L41" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="N41" s="20" t="s">
+      <c r="N41" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="O41" s="20" t="s">
+      <c r="O41" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="P41" s="20" t="s">
+      <c r="P41" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q41" s="20" t="s">
+      <c r="Q41" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="R41" s="20" t="s">
+      <c r="R41" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S41" s="8" t="s">
+      <c r="S41" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="T41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V41" s="8" t="s">
+      <c r="T41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA41" s="8" t="s">
+      <c r="Y41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA41" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD41" s="8" t="s">
+      <c r="AC41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD41" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI41" s="8" t="s">
+      <c r="AF41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI41" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AJ41" s="3" t="s">
@@ -6867,1939 +6848,1938 @@
       <c r="AK41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AQ41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD41" s="8" t="s">
+      <c r="AQ41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD41" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE41" s="8" t="s">
+      <c r="BE41" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF41" s="8" t="s">
+      <c r="BF41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH41" s="8">
+      <c r="BH41" s="6">
         <v>5</v>
       </c>
-      <c r="BL41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN41" s="8" t="s">
+      <c r="BL41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN41" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR41" s="8" t="s">
+      <c r="BQ41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR41" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY41" s="8" t="s">
+      <c r="BU41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY41" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <v>44327</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="L42" s="20" t="s">
+      <c r="L42" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="N42" s="20" t="s">
+      <c r="N42" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O42" s="20" t="s">
+      <c r="O42" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="P42" s="20" t="s">
+      <c r="P42" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="Q42" s="20" t="s">
+      <c r="Q42" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="R42" s="20" t="s">
+      <c r="R42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S42" s="8" t="s">
+      <c r="S42" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V42" s="8" t="s">
+      <c r="T42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA42" s="8" t="s">
+      <c r="Y42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA42" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD42" s="8" t="s">
+      <c r="AC42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD42" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI42" s="8" t="s">
+      <c r="AF42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ42" s="8" t="s">
+      <c r="AJ42" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK42" s="8" t="s">
+      <c r="AK42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS42" s="8" t="s">
+      <c r="AQ42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS42" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW42" s="8" t="s">
+      <c r="AV42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW42" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD42" s="8" t="s">
+      <c r="AZ42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD42" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE42" s="8" t="s">
+      <c r="BE42" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF42" s="8" t="s">
+      <c r="BF42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH42" s="8">
+      <c r="BH42" s="6">
         <v>5</v>
       </c>
-      <c r="BL42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN42" s="8" t="s">
+      <c r="BL42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR42" s="8" t="s">
+      <c r="BQ42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BU42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY42" s="8" t="s">
+      <c r="BU42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY42" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <v>44327</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="L43" s="20" t="s">
+      <c r="L43" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O43" s="20" t="s">
+      <c r="O43" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="Q43" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="R43" s="20" t="s">
+      <c r="R43" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S43" s="8" t="s">
+      <c r="S43" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T43" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V43" s="8" t="s">
+      <c r="T43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V43" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA43" s="8" t="s">
+      <c r="Y43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD43" s="8" t="s">
+      <c r="AC43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF43" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI43" s="8" t="s">
+      <c r="AF43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI43" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ43" s="8" t="s">
+      <c r="AJ43" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK43" s="8" t="s">
+      <c r="AK43" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS43" s="8" t="s">
+      <c r="AQ43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW43" s="8" t="s">
+      <c r="AV43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ43" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD43" s="8" t="s">
+      <c r="AZ43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE43" s="8" t="s">
+      <c r="BE43" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF43" s="8" t="s">
+      <c r="BF43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH43" s="8">
+      <c r="BH43" s="6">
         <v>5</v>
       </c>
-      <c r="BL43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN43" s="8" t="s">
+      <c r="BL43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN43" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR43" s="8" t="s">
+      <c r="BQ43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR43" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU43" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY43" s="8" t="s">
+      <c r="BU43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY43" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="7">
         <v>44327</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="L44" s="20" t="s">
+      <c r="L44" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O44" s="20" t="s">
+      <c r="O44" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="P44" s="20" t="s">
+      <c r="P44" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="Q44" s="20" t="s">
+      <c r="Q44" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="R44" s="20" t="s">
+      <c r="R44" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S44" s="8" t="s">
+      <c r="S44" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V44" s="8" t="s">
+      <c r="T44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V44" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA44" s="8" t="s">
+      <c r="Y44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD44" s="8" t="s">
+      <c r="AC44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI44" s="8" t="s">
+      <c r="AF44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI44" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ44" s="8" t="s">
+      <c r="AJ44" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK44" s="8" t="s">
+      <c r="AK44" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS44" s="8" t="s">
+      <c r="AQ44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW44" s="8" t="s">
+      <c r="AV44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD44" s="8" t="s">
+      <c r="AZ44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD44" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE44" s="8" t="s">
+      <c r="BE44" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF44" s="8" t="s">
+      <c r="BF44" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="BH44" s="8">
+      <c r="BH44" s="6">
         <v>5</v>
       </c>
-      <c r="BL44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN44" s="8" t="s">
+      <c r="BL44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN44" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR44" s="8" t="s">
+      <c r="BQ44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR44" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="BU44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY44" s="8" t="s">
+      <c r="BU44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY44" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="7">
         <v>44327</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="L45" s="20" t="s">
+      <c r="L45" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="N45" s="20" t="s">
+      <c r="N45" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="O45" s="20" t="s">
+      <c r="O45" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="P45" s="20" t="s">
+      <c r="P45" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="Q45" s="20" t="s">
+      <c r="Q45" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="R45" s="20" t="s">
+      <c r="R45" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S45" s="8" t="s">
+      <c r="S45" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="U45" s="8">
+      <c r="T45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="U45" s="6">
         <v>20</v>
       </c>
-      <c r="V45" s="8" t="s">
+      <c r="V45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI45" s="8" t="s">
+      <c r="Y45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI45" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ45" s="8" t="s">
+      <c r="AJ45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK45" s="8" t="s">
+      <c r="AK45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD45" s="8" t="s">
+      <c r="AQ45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD45" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE45" s="8" t="s">
+      <c r="BE45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF45" s="8" t="s">
+      <c r="BF45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BL45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN45" s="8" t="s">
+      <c r="BL45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN45" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="BQ45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR45" s="8" t="s">
+      <c r="BQ45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR45" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="BU45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY45" s="8" t="s">
+      <c r="BU45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY45" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="7">
         <v>44524</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="L46" s="20" t="s">
+      <c r="L46" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="M46" s="20" t="s">
+      <c r="M46" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="N46" s="20" t="s">
+      <c r="N46" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O46" s="20" t="s">
+      <c r="O46" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="P46" s="20" t="s">
+      <c r="P46" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="Q46" s="20" t="s">
+      <c r="Q46" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="R46" s="20" t="s">
+      <c r="R46" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="S46" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V46" s="8" t="s">
+      <c r="T46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V46" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA46" s="8" t="s">
+      <c r="Y46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA46" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD46" s="8" t="s">
+      <c r="AC46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD46" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI46" s="8" t="s">
+      <c r="AF46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ46" s="8" t="s">
+      <c r="AJ46" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK46" s="8" t="s">
+      <c r="AK46" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS46" s="8" t="s">
+      <c r="AQ46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS46" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW46" s="8" t="s">
+      <c r="AV46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW46" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY46" s="8" t="s">
+      <c r="AZ46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY46" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="7">
         <v>44524</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="L47" s="20" t="s">
+      <c r="L47" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O47" s="20" t="s">
+      <c r="O47" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="P47" s="20" t="s">
+      <c r="P47" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="Q47" s="20" t="s">
+      <c r="Q47" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="R47" s="20" t="s">
+      <c r="R47" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S47" s="8" t="s">
+      <c r="S47" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V47" s="8" t="s">
+      <c r="T47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V47" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA47" s="8" t="s">
+      <c r="Y47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA47" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD47" s="8" t="s">
+      <c r="AC47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD47" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI47" s="8" t="s">
+      <c r="AF47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ47" s="8" t="s">
+      <c r="AJ47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK47" s="8" t="s">
+      <c r="AK47" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS47" s="8" t="s">
+      <c r="AQ47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS47" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW47" s="8" t="s">
+      <c r="AV47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW47" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD47" s="8" t="s">
+      <c r="AZ47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD47" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE47" s="8" t="s">
+      <c r="BE47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF47" s="8" t="s">
+      <c r="BF47" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="BL47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN47" s="8" t="s">
+      <c r="BL47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN47" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR47" s="8" t="s">
+      <c r="BQ47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR47" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="BU47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY47" s="8" t="s">
+      <c r="BU47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY47" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="7">
         <v>44524</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="L48" s="20" t="s">
+      <c r="L48" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="N48" s="20" t="s">
+      <c r="N48" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="O48" s="20" t="s">
+      <c r="O48" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="P48" s="20" t="s">
+      <c r="P48" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="Q48" s="20" t="s">
+      <c r="Q48" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="R48" s="20" t="s">
+      <c r="R48" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S48" s="8" t="s">
+      <c r="S48" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="U48" s="8">
+      <c r="T48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="U48" s="6">
         <v>20</v>
       </c>
-      <c r="V48" s="8" t="s">
+      <c r="V48" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI48" s="8" t="s">
+      <c r="Y48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI48" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ48" s="8" t="s">
+      <c r="AJ48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK48" s="8" t="s">
+      <c r="AK48" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD48" s="8" t="s">
+      <c r="AQ48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD48" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE48" s="8" t="s">
+      <c r="BE48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF48" s="8" t="s">
+      <c r="BF48" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BL48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN48" s="8" t="s">
+      <c r="BL48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="BQ48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR48" s="8" t="s">
+      <c r="BQ48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="BU48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY48" s="8" t="s">
+      <c r="BU48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY48" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="7">
         <v>44524</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="L49" s="20" t="s">
+      <c r="L49" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="N49" s="20" t="s">
+      <c r="N49" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O49" s="20" t="s">
+      <c r="O49" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="P49" s="20" t="s">
+      <c r="P49" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="Q49" s="20" t="s">
+      <c r="Q49" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="R49" s="20" t="s">
+      <c r="R49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S49" s="8" t="s">
+      <c r="S49" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T49" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V49" s="8" t="s">
+      <c r="T49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V49" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA49" s="8" t="s">
+      <c r="Y49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA49" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD49" s="8" t="s">
+      <c r="AC49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD49" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF49" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI49" s="8" t="s">
+      <c r="AF49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ49" s="8" t="s">
+      <c r="AJ49" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK49" s="8" t="s">
+      <c r="AK49" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS49" s="8" t="s">
+      <c r="AQ49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS49" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW49" s="8" t="s">
+      <c r="AV49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW49" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ49" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD49" s="8" t="s">
+      <c r="AZ49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD49" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE49" s="8" t="s">
+      <c r="BE49" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF49" s="8" t="s">
+      <c r="BF49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH49" s="8">
+      <c r="BH49" s="6">
         <v>5</v>
       </c>
-      <c r="BL49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN49" s="8" t="s">
+      <c r="BL49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN49" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR49" s="8" t="s">
+      <c r="BQ49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR49" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="BU49" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY49" s="8" t="s">
+      <c r="BU49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY49" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="7">
         <v>44524</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="L50" s="20" t="s">
+      <c r="L50" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="M50" s="20" t="s">
+      <c r="M50" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O50" s="20" t="s">
+      <c r="O50" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="P50" s="20" t="s">
+      <c r="P50" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="Q50" s="20" t="s">
+      <c r="Q50" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="R50" s="20" t="s">
+      <c r="R50" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S50" s="8" t="s">
+      <c r="S50" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T50" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V50" s="8" t="s">
+      <c r="T50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V50" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA50" s="8" t="s">
+      <c r="Y50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA50" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD50" s="8" t="s">
+      <c r="AC50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD50" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF50" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI50" s="8" t="s">
+      <c r="AF50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI50" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ50" s="8" t="s">
+      <c r="AJ50" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AK50" s="8" t="s">
+      <c r="AK50" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS50" s="8" t="s">
+      <c r="AQ50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS50" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AV50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW50" s="8" t="s">
+      <c r="AV50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW50" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AZ50" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD50" s="8" t="s">
+      <c r="AZ50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD50" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE50" s="8" t="s">
+      <c r="BE50" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF50" s="8" t="s">
+      <c r="BF50" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="BH50" s="8">
+      <c r="BH50" s="6">
         <v>5</v>
       </c>
-      <c r="BL50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN50" s="8" t="s">
+      <c r="BL50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN50" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BQ50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR50" s="8" t="s">
+      <c r="BQ50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR50" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="BU50" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY50" s="8" t="s">
+      <c r="BU50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY50" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="7">
         <v>44722</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="L51" s="20" t="s">
+      <c r="K51" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L51" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="M51" s="20" t="s">
+      <c r="M51" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="O51" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="N51" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="O51" s="20" t="s">
+      <c r="P51" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="P51" s="20" t="s">
+      <c r="Q51" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="Q51" s="20" t="s">
+      <c r="R51" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI51" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN51" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE51" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF51" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BH51" s="6">
+        <v>5</v>
+      </c>
+      <c r="BL51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN51" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR51" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="R51" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="T51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V51" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA51" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD51" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI51" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ51" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK51" s="7"/>
-      <c r="AN51" s="8">
-        <v>5</v>
-      </c>
-      <c r="AQ51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS51" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW51" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD51" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE51" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF51" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="BH51" s="8">
-        <v>5</v>
-      </c>
-      <c r="BL51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN51" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR51" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="BU51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY51" s="8" t="s">
+      <c r="BU51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY51" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="E52" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F52" s="7">
         <v>44729</v>
       </c>
-      <c r="G52" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="H52" s="8" t="s">
+      <c r="G52" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="K52" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="L52" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="M52" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="L52" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="M52" s="20" t="s">
+      <c r="N52" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="O52" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="N52" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="O52" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="P52" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q52" s="20" t="s">
+      <c r="P52" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q52" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="R52" s="20" t="s">
+      <c r="R52" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S52" s="8" t="s">
+      <c r="S52" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T52" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V52" s="8" t="s">
+      <c r="T52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V52" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA52" s="7" t="s">
+      <c r="Y52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AC52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD52" s="7" t="s">
+      <c r="AC52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AF52" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI52" s="8" t="s">
+      <c r="AF52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ52" s="8" t="s">
+      <c r="AJ52" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AN52" s="8">
+      <c r="AN52" s="6">
         <v>5</v>
       </c>
-      <c r="AQ52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS52" s="7" t="s">
+      <c r="AQ52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AV52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW52" s="7" t="s">
+      <c r="AV52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AZ52" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD52" s="8" t="s">
+      <c r="AZ52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD52" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE52" s="8" t="s">
+      <c r="BE52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BF52" s="8" t="s">
+      <c r="BF52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BH52" s="8">
+      <c r="BH52" s="6">
         <v>5</v>
       </c>
-      <c r="BL52" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY52" s="8" t="s">
+      <c r="BL52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY52" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F53" s="7">
+        <v>44729</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="F53" s="9">
-        <v>44729</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="K53" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="L53" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="M53" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="L53" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="M53" s="20" t="s">
+      <c r="N53" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="O53" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="N53" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="O53" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="P53" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q53" s="20" t="s">
+      <c r="P53" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q53" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="R53" s="20" t="s">
+      <c r="R53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S53" s="8" t="s">
+      <c r="S53" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V53" s="8" t="s">
+      <c r="T53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA53" s="7" t="s">
+      <c r="Y53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA53" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AC53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD53" s="7" t="s">
+      <c r="AC53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD53" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AF53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI53" s="8" t="s">
+      <c r="AF53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI53" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ53" s="8" t="s">
+      <c r="AJ53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AN53" s="8">
+      <c r="AN53" s="6">
         <v>5</v>
       </c>
-      <c r="AQ53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS53" s="7" t="s">
+      <c r="AQ53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS53" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AV53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW53" s="7" t="s">
+      <c r="AV53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW53" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AZ53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BE53" s="8" t="s">
+      <c r="AZ53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BH53" s="8">
+      <c r="BH53" s="6">
         <v>5</v>
       </c>
-      <c r="BL53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY53" s="8" t="s">
+      <c r="BL53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY53" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="7">
         <v>44775</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="G54" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L54" s="20" t="s">
+      <c r="L54" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="P54" s="20" t="s">
+      <c r="P54" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD54" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="T54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD54" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="BE54" s="8" t="s">
+      <c r="BE54" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BL54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY54" s="8" t="s">
+      <c r="BL54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY54" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:100" ht="42" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="G55" s="8" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="G55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="U55" s="8">
+      <c r="T55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U55" s="6">
         <v>20</v>
       </c>
-      <c r="V55" s="8" t="s">
+      <c r="V55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Y55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB55" s="8">
+      <c r="Y55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB55" s="6">
         <v>5</v>
       </c>
-      <c r="AC55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE55" s="8">
+      <c r="AC55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE55" s="6">
         <v>5</v>
       </c>
-      <c r="AF55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH55" s="8">
+      <c r="AF55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH55" s="6">
         <v>5</v>
       </c>
-      <c r="AJ55" s="8" t="s">
+      <c r="AJ55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AM55" s="8">
+      <c r="AM55" s="6">
         <v>5</v>
       </c>
-      <c r="AN55" s="8">
+      <c r="AN55" s="6">
         <v>24</v>
       </c>
-      <c r="AO55" s="8">
+      <c r="AO55" s="6">
         <v>100</v>
       </c>
-      <c r="AP55" s="8">
+      <c r="AP55" s="6">
         <v>400</v>
       </c>
-      <c r="AQ55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT55" s="8">
+      <c r="AQ55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT55" s="6">
         <v>5</v>
       </c>
-      <c r="AU55" s="8">
+      <c r="AU55" s="6">
         <v>5</v>
       </c>
-      <c r="AV55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX55" s="8">
+      <c r="AV55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX55" s="6">
         <v>5</v>
       </c>
-      <c r="AY55" s="8">
+      <c r="AY55" s="6">
         <v>5</v>
       </c>
-      <c r="AZ55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB55" s="8">
+      <c r="AZ55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB55" s="6">
         <v>5</v>
       </c>
-      <c r="BC55" s="8">
+      <c r="BC55" s="6">
         <v>5</v>
       </c>
-      <c r="BE55" s="8" t="s">
+      <c r="BE55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BH55" s="8">
+      <c r="BH55" s="6">
         <v>5</v>
       </c>
-      <c r="BI55" s="8">
+      <c r="BI55" s="6">
         <v>24</v>
       </c>
-      <c r="BJ55" s="8">
+      <c r="BJ55" s="6">
         <v>100</v>
       </c>
-      <c r="BK55" s="8">
+      <c r="BK55" s="6">
         <v>400</v>
       </c>
-      <c r="BL55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO55" s="8">
+      <c r="BL55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO55" s="6">
         <v>5</v>
       </c>
-      <c r="BP55" s="8">
+      <c r="BP55" s="6">
         <v>5</v>
       </c>
-      <c r="BQ55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BS55" s="8">
+      <c r="BQ55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS55" s="6">
         <v>5</v>
       </c>
-      <c r="BT55" s="8">
+      <c r="BT55" s="6">
         <v>5</v>
       </c>
-      <c r="BU55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BW55" s="8">
+      <c r="BU55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BW55" s="6">
         <v>5</v>
       </c>
-      <c r="BX55" s="8">
+      <c r="BX55" s="6">
         <v>5</v>
       </c>
-      <c r="BY55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BZ55" s="8" t="s">
+      <c r="BY55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BZ55" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CA55" s="8" t="s">
+      <c r="CA55" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="CB55" s="8" t="s">
+      <c r="CB55" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="CC55" s="8">
+      <c r="CC55" s="6">
         <v>0.7</v>
       </c>
-      <c r="CD55" s="8" t="s">
+      <c r="CD55" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="8" t="s">
+      <c r="CE55" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="CF55" s="8">
+      <c r="CF55" s="6">
         <v>50</v>
       </c>
-      <c r="CG55" s="14">
+      <c r="CG55" s="6">
         <v>5</v>
       </c>
-      <c r="CH55" s="14">
+      <c r="CH55" s="6">
         <v>5</v>
       </c>
-      <c r="CI55" s="14">
+      <c r="CI55" s="6">
         <v>5</v>
       </c>
-      <c r="CJ55" s="14">
+      <c r="CJ55" s="6">
         <v>5</v>
       </c>
-      <c r="CK55" s="8" t="s">
+      <c r="CK55" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="CL55" s="8">
+      <c r="CL55" s="6">
         <v>5</v>
       </c>
-      <c r="CM55" s="8">
+      <c r="CM55" s="6">
         <v>5</v>
       </c>
-      <c r="CN55" s="14">
+      <c r="CN55" s="6">
         <v>5</v>
       </c>
-      <c r="CO55" s="14">
+      <c r="CO55" s="6">
         <v>5</v>
       </c>
-      <c r="CP55" s="14">
+      <c r="CP55" s="6">
         <v>5</v>
       </c>
-      <c r="CQ55" s="8" t="s">
+      <c r="CQ55" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="CR55" s="8">
+      <c r="CR55" s="6">
         <v>5</v>
       </c>
-      <c r="CS55" s="8">
+      <c r="CS55" s="6">
         <v>5</v>
       </c>
-      <c r="CT55" s="14">
+      <c r="CT55" s="6">
         <v>5</v>
       </c>
-      <c r="CU55" s="14">
+      <c r="CU55" s="6">
         <v>5</v>
       </c>
-      <c r="CV55" s="14">
+      <c r="CV55" s="6">
         <v>5</v>
       </c>
     </row>

--- a/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
+++ b/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/Github/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8778F8-5738-9441-856B-0DFD46C9151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37109A7-3070-E44B-A447-96FD4A463A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1140" windowWidth="34160" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61600" yWindow="-2480" windowWidth="23760" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="482">
   <si>
     <t>proposal</t>
   </si>
@@ -364,27 +364,18 @@
     <t>iuu_sdt_what_ldc</t>
   </si>
   <si>
-    <t>iuu_sdt_time_delay_ldc</t>
-  </si>
-  <si>
     <t>iuu_sdt_developing</t>
   </si>
   <si>
     <t>iuu_sdt_what_developing</t>
   </si>
   <si>
-    <t>iuu_sdt_time_delay_developing</t>
-  </si>
-  <si>
     <t>iuu_sdt_sve</t>
   </si>
   <si>
     <t>iuu_sdt_what_sve</t>
   </si>
   <si>
-    <t>iuu_sdt_time_delay_sve</t>
-  </si>
-  <si>
     <t>oa_tonnage_cutoff</t>
   </si>
   <si>
@@ -397,36 +388,18 @@
     <t>oa_sdt_what_ldc</t>
   </si>
   <si>
-    <t>oa_sdt_hs_cutoff_ldc</t>
-  </si>
-  <si>
-    <t>oa_sdt_time_delay_ldc</t>
-  </si>
-  <si>
     <t>oa_sdt_developing</t>
   </si>
   <si>
     <t>oa_sdt_what_developing</t>
   </si>
   <si>
-    <t>oa_sdt_hs_cutoff_developing</t>
-  </si>
-  <si>
-    <t>oa_sdt_time_delay_developing</t>
-  </si>
-  <si>
     <t>oa_sdt_sve</t>
   </si>
   <si>
     <t>oa_sdt_what_sve</t>
   </si>
   <si>
-    <t>oa_sdt_hs_cutoff_sve</t>
-  </si>
-  <si>
-    <t>oa_sdt_time_delay_sve</t>
-  </si>
-  <si>
     <t>overcap_tonnage_cutoff</t>
   </si>
   <si>
@@ -442,21 +415,12 @@
     <t>overcap_sdt_hs_cutoff_ldc</t>
   </si>
   <si>
-    <t>overcap_sdt_time_delay_ldc</t>
-  </si>
-  <si>
     <t>overcap_sdt_developing</t>
   </si>
   <si>
     <t>overcap_sdt_what_developing</t>
   </si>
   <si>
-    <t>overcap_sdt_hs_cutoff_developing</t>
-  </si>
-  <si>
-    <t>overcap_sdt_time_delay_developing</t>
-  </si>
-  <si>
     <t>overcap_sdt_sve</t>
   </si>
   <si>
@@ -466,9 +430,6 @@
     <t>overcap_sdt_hs_cutoff_sve</t>
   </si>
   <si>
-    <t>overcap_sdt_time_delay_sve</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -1030,9 +991,6 @@
     <t>JUNE Chair's text - low end version (everyone gets sustainability exemption, but we assume the high seas OFOC prohibition still applies)</t>
   </si>
   <si>
-    <t>TER/CAP07</t>
-  </si>
-  <si>
     <t>This prohibition shall not apply to LDC Members. A transition period for developing Members is considered but not modeled.</t>
   </si>
   <si>
@@ -1228,9 +1186,6 @@
     <t xml:space="preserve">This proposal builds on TN/RL/GEN/192, as reflected in TN/RL/W/274/Rev.6, and advocates for a prohibition on subsidies for capital and operating costs, provided to large-scale industrial fishing. Capital cost subsidies include those for construction, acquisition, modernization, renovation or upgrading of vessels, direct transfers for vessel construction and modernization, purchase of machines and equipment for fishing vessels. Operating cost subsidies include those for fuel, ice, bait, personnel, income support of vessels or operators or the workers they employ, social chargers, insurance, payments based on the price of fish caught, gear, and at-sea support, or operating losses of such vessels or activities. This text includes a list of subsidies that shall not be prohibited ("green box"): fisheries management, permanent cessation of fishing; implementation of international agreements, disaster relief, health and safety conditions, promotion of human capital. </t>
   </si>
   <si>
-    <t>CAPTURE_2</t>
-  </si>
-  <si>
     <t>CAPTURE_2_EX_EEZ</t>
   </si>
   <si>
@@ -1459,9 +1414,6 @@
     <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for low income, resource-poor, or livelihood fishing in their territorial seas. For the purposes of modeling, we provide this exemption for developing countries for all fishing in their territorial waters (Note: as written the text also includes as an alternative 24 nautical miles but this is not modeled) unless they are responsible for more than 10% of annual global marine capture production. Developing Members responsible for less than 0.8% of global marine capture production will also be allowed to continue providing subsidies for fishing in their EEZs and in the areas of competence of RFMO/As as per the most recent published FAO data. As written, developing Members not meeting this criteria may also be allowed to provide subsidies for fishing in their EEZs and in the areas of competence of RFMO/As for a transition period, but this is not modeled.</t>
   </si>
   <si>
-    <t>TER10/CAP08</t>
-  </si>
-  <si>
     <t>Boat construction and modernization, Fisheries development projects, Non-fuel tax exemptions, Fishing access agreements, Fuel subsidies, Fisher assistance, Vessel buyback programs, Rural fisher communities</t>
   </si>
   <si>
@@ -1496,6 +1448,24 @@
   </si>
   <si>
     <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that subsidies to vessels fishing beyond Members' national jurisdictions are allowed. We note that this may be a conservative interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>oa_sub_cutoff</t>
+  </si>
+  <si>
+    <t>oa_capture_cutoff</t>
+  </si>
+  <si>
+    <t>overcap_sub_cutoff</t>
+  </si>
+  <si>
+    <t>overcap_capture_cutoff</t>
+  </si>
+  <si>
+    <t>overcap_sdt_capture_cutoff_developing</t>
+  </si>
+  <si>
+    <t>TER/CAPTURE</t>
   </si>
 </sst>
 </file>
@@ -2447,11 +2417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV55"/>
+  <dimension ref="A1:CN55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q53" sqref="Q53"/>
+      <selection pane="bottomLeft" activeCell="BM60" sqref="BM60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2471,10 +2441,12 @@
     <col min="14" max="16" width="68.83203125" style="17" customWidth="1"/>
     <col min="17" max="17" width="42.1640625" style="17" customWidth="1"/>
     <col min="18" max="18" width="68.83203125" style="17" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="6"/>
+    <col min="19" max="35" width="10.83203125" style="6"/>
+    <col min="36" max="37" width="12" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -2485,7 +2457,7 @@
         <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>108</v>
@@ -2509,25 +2481,25 @@
         <v>3</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>4</v>
@@ -2542,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>8</v>
@@ -2569,214 +2541,190 @@
         <v>117</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AL1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="BG1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="CG1" s="3" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="CH1" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="CI1" s="3" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="CJ1" s="3" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="CK1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="CL1" s="3" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="CM1" s="3" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:100" s="3" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:92" s="3" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -2784,13 +2732,13 @@
         <v>62</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F2" s="7">
         <v>43545</v>
@@ -2802,34 +2750,34 @@
         <v>38</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -2838,7 +2786,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
@@ -2856,10 +2804,10 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
@@ -2875,71 +2823,63 @@
       <c r="BD2" s="6"/>
       <c r="BE2" s="6"/>
       <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
+      <c r="BG2" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="BH2" s="6"/>
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
       <c r="BK2" s="6"/>
-      <c r="BL2" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="BL2" s="6"/>
       <c r="BM2" s="6"/>
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
       <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
+      <c r="BQ2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="BU2" s="6"/>
       <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
+      <c r="BW2" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="BX2" s="6"/>
-      <c r="BY2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB2" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="12" t="s">
-        <v>204</v>
+      <c r="BY2" s="6">
+        <v>10</v>
+      </c>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CE2" s="6">
+        <v>20</v>
       </c>
       <c r="CF2" s="6"/>
-      <c r="CG2" s="6">
-        <v>10</v>
-      </c>
+      <c r="CG2" s="6"/>
       <c r="CH2" s="6"/>
-      <c r="CI2" s="6"/>
+      <c r="CI2" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="CJ2" s="6"/>
-      <c r="CK2" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="CM2" s="6">
-        <v>20</v>
-      </c>
+      <c r="CK2" s="6">
+        <v>30</v>
+      </c>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
-      <c r="CP2" s="6"/>
-      <c r="CQ2" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="CR2" s="6"/>
-      <c r="CS2" s="6">
-        <v>30</v>
-      </c>
-      <c r="CT2" s="6"/>
-      <c r="CU2" s="6"/>
-      <c r="CV2" s="6"/>
     </row>
-    <row r="3" spans="1:100" ht="168" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92" ht="168" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -2947,13 +2887,13 @@
         <v>62</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F3" s="7">
         <v>43573</v>
@@ -2968,52 +2908,52 @@
         <v>72</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY3" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="252" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" ht="252" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -3021,13 +2961,13 @@
         <v>62</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7">
         <v>43620</v>
@@ -3045,67 +2985,67 @@
         <v>50</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY4" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ4" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="CB4" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="CE4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="CH4" s="6">
+        <v>137</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ4" s="6">
         <v>55</v>
       </c>
-      <c r="CI4" s="6">
+      <c r="CA4" s="6">
         <v>2.1</v>
       </c>
-      <c r="CJ4" s="6">
+      <c r="CB4" s="6">
         <v>55</v>
       </c>
-      <c r="CK4" s="6" t="s">
-        <v>155</v>
+      <c r="CC4" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:100" ht="196" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" ht="196" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -3113,13 +3053,13 @@
         <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7">
         <v>43621</v>
@@ -3134,52 +3074,52 @@
         <v>86</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY5" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="182" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" ht="182" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -3187,13 +3127,13 @@
         <v>56</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7">
         <v>43628</v>
@@ -3211,52 +3151,52 @@
         <v>94</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R6" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY6" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ6" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:100" ht="126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -3264,13 +3204,13 @@
         <v>62</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7">
         <v>43643</v>
@@ -3288,55 +3228,55 @@
         <v>67</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>382</v>
-      </c>
       <c r="Q7" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R7" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH7" s="6">
+      <c r="BC7" s="6">
         <v>5</v>
       </c>
-      <c r="BL7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY7" s="6" t="s">
-        <v>150</v>
+      <c r="BG7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ7" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="182" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" ht="182" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -3345,16 +3285,16 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7">
         <v>43648</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>38</v>
@@ -3366,67 +3306,67 @@
         <v>74</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="R8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BE8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF8" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="BH8" s="6">
+      <c r="AX8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="BC8" s="6">
         <v>5</v>
       </c>
-      <c r="BL8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM8" s="6" t="s">
-        <v>157</v>
+      <c r="BG8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK8" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="BN8" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY8" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:100" ht="154" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" ht="154" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3434,13 +3374,13 @@
         <v>80</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F9" s="7">
         <v>43648</v>
@@ -3458,52 +3398,52 @@
         <v>84</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY9" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ9" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:100" ht="182" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" ht="182" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -3511,13 +3451,13 @@
         <v>62</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7">
         <v>43657</v>
@@ -3535,70 +3475,70 @@
         <v>47</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ10" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA10" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="CD10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CE10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="CG10" s="6">
+      <c r="BW10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY10" s="6">
         <v>50</v>
       </c>
-      <c r="CK10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL10" s="6">
+      <c r="CC10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD10" s="6">
         <v>50</v>
       </c>
-      <c r="CQ10" s="6" t="s">
-        <v>155</v>
+      <c r="CI10" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:100" ht="126" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" ht="126" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -3606,13 +3546,13 @@
         <v>62</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7">
         <v>43684</v>
@@ -3630,61 +3570,61 @@
         <v>73</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD11" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF11" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI11" s="6">
+        <v>137</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD11" s="6">
         <v>24</v>
       </c>
-      <c r="BJ11" s="6">
+      <c r="BE11" s="6">
         <v>100</v>
       </c>
-      <c r="BK11" s="6">
+      <c r="BF11" s="6">
         <v>130</v>
       </c>
-      <c r="BL11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY11" s="6" t="s">
-        <v>150</v>
+      <c r="BG11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ11" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:100" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -3692,13 +3632,13 @@
         <v>56</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7">
         <v>43718</v>
@@ -3716,25 +3656,25 @@
         <v>59</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>38</v>
@@ -3743,37 +3683,37 @@
         <v>110</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY12" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ12" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:100" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7">
         <v>43759</v>
@@ -3785,58 +3725,58 @@
         <v>39</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R13" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="BL13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY13" s="6" t="s">
-        <v>150</v>
+      <c r="BG13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ13" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:100" ht="182" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" ht="182" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3844,13 +3784,13 @@
         <v>62</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7">
         <v>43775</v>
@@ -3868,61 +3808,61 @@
         <v>76</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="R14" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AQ14" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR14" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY14" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ14" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:100" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -3930,13 +3870,13 @@
         <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F15" s="7">
         <v>43801</v>
@@ -3951,70 +3891,70 @@
         <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R15" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY15" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ15" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:100" ht="70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:92" ht="70" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -4023,10 +3963,10 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7">
         <v>43801</v>
@@ -4044,19 +3984,19 @@
         <v>96</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:100" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:92" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -4065,10 +4005,10 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7">
         <v>43801</v>
@@ -4086,31 +4026,31 @@
         <v>79</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:100" ht="56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:92" ht="56" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7">
         <v>43802</v>
@@ -4128,19 +4068,19 @@
         <v>88</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:100" ht="154" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:92" ht="154" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4148,19 +4088,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F19" s="7">
         <v>43803</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>38</v>
@@ -4172,30 +4112,30 @@
         <v>81</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:100" ht="168" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:92" ht="168" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7">
         <v>43803</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>38</v>
@@ -4207,69 +4147,69 @@
         <v>81</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R20" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY20" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ20" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:100" ht="182" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:92" ht="168" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F21" s="7">
         <v>43803</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>38</v>
@@ -4281,49 +4221,49 @@
         <v>81</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY21" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ21" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:100" ht="266" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:92" ht="266" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4331,19 +4271,19 @@
         <v>62</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7">
         <v>43843</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>38</v>
@@ -4355,61 +4295,61 @@
         <v>104</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R22" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD22" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX22" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BH22" s="6">
+      <c r="BC22" s="6">
         <v>5</v>
       </c>
-      <c r="BL22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY22" s="6" t="s">
-        <v>150</v>
+      <c r="BG22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ22" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:100" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:92" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -4417,19 +4357,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7">
         <v>43865</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>38</v>
@@ -4441,72 +4381,72 @@
         <v>92</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R23" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY23" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ23" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:100" ht="182" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:92" ht="182" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F24" s="7">
         <v>43865</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>38</v>
@@ -4518,64 +4458,67 @@
         <v>74</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="R24" s="17" t="s">
         <v>38</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BE24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF24" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="BL24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM24" s="6" t="s">
-        <v>157</v>
+      <c r="AX24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB24" s="6">
+        <v>2</v>
+      </c>
+      <c r="BG24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK24" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="BN24" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY24" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:100" ht="112" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:92" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -4583,90 +4526,90 @@
         <v>62</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F25" s="10">
         <v>43890</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY25" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ25" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA25" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="CE25" s="6" t="s">
-        <v>214</v>
+        <v>137</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW25" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:100" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:92" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F26" s="10">
         <v>43896</v>
@@ -4678,49 +4621,49 @@
         <v>38</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="R26" s="18" t="s">
         <v>38</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -4728,86 +4671,86 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ26" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK26" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="AF26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
+      <c r="AW26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE26" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF26" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3">
+      <c r="BC26" s="3">
         <v>5</v>
       </c>
-      <c r="BI26" s="3">
+      <c r="BD26" s="3">
         <v>24</v>
       </c>
-      <c r="BJ26" s="3">
+      <c r="BE26" s="3">
         <v>100</v>
       </c>
-      <c r="BK26" s="6">
+      <c r="BF26" s="6">
         <v>130</v>
       </c>
-      <c r="BL26" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM26" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="BG26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
       <c r="BN26" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BO26" s="3"/>
       <c r="BP26" s="3"/>
       <c r="BQ26" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="BR26" s="3"/>
       <c r="BS26" s="3"/>
       <c r="BT26" s="3"/>
-      <c r="BU26" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="3"/>
       <c r="BX26" s="3"/>
-      <c r="BY26" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="BY26" s="3"/>
       <c r="BZ26" s="3"/>
       <c r="CA26" s="3"/>
       <c r="CB26" s="3"/>
@@ -4823,36 +4766,28 @@
       <c r="CL26" s="3"/>
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
-      <c r="CO26" s="3"/>
-      <c r="CP26" s="3"/>
-      <c r="CQ26" s="3"/>
-      <c r="CR26" s="3"/>
-      <c r="CS26" s="3"/>
-      <c r="CT26" s="3"/>
-      <c r="CU26" s="3"/>
-      <c r="CV26" s="3"/>
     </row>
-    <row r="27" spans="1:100" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:92" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F27" s="7">
         <v>43896</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>39</v>
@@ -4864,130 +4799,130 @@
         <v>90</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R27" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>411</v>
+        <v>396</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP27" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AQ27" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR27" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS27" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV27" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU27" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW27" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD27" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE27" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF27" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="BH27" s="6">
+        <v>177</v>
+      </c>
+      <c r="AX27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY27" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="BC27" s="6">
         <v>5</v>
       </c>
-      <c r="BI27" s="3">
+      <c r="BD27" s="3">
         <v>24</v>
       </c>
-      <c r="BJ27" s="6">
+      <c r="BE27" s="6">
         <v>100</v>
       </c>
-      <c r="BK27" s="6">
+      <c r="BF27" s="6">
         <v>130</v>
       </c>
+      <c r="BG27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK27" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM27" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN27" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR27" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY27" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:92" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4995,108 +4930,108 @@
         <v>62</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F28" s="10">
         <v>44110</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CA28" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="CE28" s="6" t="s">
-        <v>214</v>
+      <c r="BS28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW28" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:92" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F29" s="7">
         <v>44183</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -5104,3477 +5039,3489 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BI29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:92" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F30" s="7">
         <v>44183</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R30" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP30" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AQ30" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR30" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AS30" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV30" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW30" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD30" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH30" s="6">
+      <c r="BC30" s="6">
         <v>5</v>
       </c>
+      <c r="BG30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK30" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM30" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN30" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR30" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY30" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:92" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F31" s="7">
         <v>44183</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R31" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR31" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ31" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR31" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS31" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV31" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU31" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW31" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD31" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF31" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH31" s="6">
+      <c r="BC31" s="6">
         <v>5</v>
       </c>
+      <c r="BG31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK31" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL31" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM31" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN31" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ31" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR31" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY31" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:100" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:92" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="F32" s="7">
         <v>44183</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC32" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL32" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF32" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI32" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ32" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD32" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH32" s="6">
-        <v>5</v>
-      </c>
-      <c r="BL32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR32" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU32" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ32" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CA32" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="CB32" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="CE32" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="CH32" s="6">
+      <c r="BS32" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT32" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW32" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ32" s="6">
         <v>55</v>
       </c>
-      <c r="CI32" s="6">
+      <c r="CA32" s="6">
         <v>2</v>
       </c>
-      <c r="CJ32" s="6">
+      <c r="CB32" s="6">
         <v>55</v>
       </c>
-      <c r="CK32" s="6" t="s">
-        <v>155</v>
+      <c r="CC32" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:89" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F33" s="7">
         <v>44183</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y33" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW33" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC33" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL33" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AC33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI33" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK33" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ33" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD33" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH33" s="6">
-        <v>5</v>
-      </c>
-      <c r="BL33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN33" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR33" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU33" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ33" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CA33" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="CB33" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="CE33" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="CH33" s="6">
+      <c r="BS33" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT33" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ33" s="6">
         <v>55</v>
       </c>
-      <c r="CI33" s="6">
+      <c r="CA33" s="6">
         <v>2</v>
       </c>
-      <c r="CJ33" s="6">
+      <c r="CB33" s="6">
         <v>55</v>
       </c>
-      <c r="CK33" s="6" t="s">
-        <v>155</v>
+      <c r="CC33" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:89" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F34" s="7">
         <v>44183</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q34" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI34" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK34" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP34" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AQ34" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR34" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AS34" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV34" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT34" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU34" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW34" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD34" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF34" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH34" s="6">
+      <c r="BC34" s="6">
         <v>5</v>
       </c>
+      <c r="BG34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK34" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL34" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM34" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN34" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ34" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="BR34" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY34" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ34" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA34" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="CD34" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CE34" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="CG34" s="6">
+      <c r="BW34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY34" s="6">
         <v>50</v>
       </c>
-      <c r="CK34" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL34" s="6">
+      <c r="CC34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD34" s="6">
         <v>50</v>
       </c>
-      <c r="CQ34" s="6" t="s">
-        <v>155</v>
+      <c r="CI34" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:89" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F35" s="7">
         <v>44183</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y35" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR35" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ35" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR35" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS35" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV35" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU35" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW35" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ35" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD35" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE35" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF35" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX35" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH35" s="6">
+      <c r="BC35" s="6">
         <v>5</v>
       </c>
+      <c r="BG35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK35" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM35" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN35" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ35" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="BR35" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU35" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ35" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA35" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="CD35" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS35" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT35" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CE35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="CG35" s="6">
+      <c r="BW35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY35" s="6">
         <v>50</v>
       </c>
-      <c r="CK35" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL35" s="6">
+      <c r="CC35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD35" s="6">
         <v>50</v>
       </c>
-      <c r="CQ35" s="6" t="s">
-        <v>155</v>
+      <c r="CI35" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:89" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F36" s="7">
         <v>44183</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P36" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="R36" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW36" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX36" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC36" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL36" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR36" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BW36" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY36" s="6">
+        <v>10</v>
+      </c>
+      <c r="CC36" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD36" s="3"/>
+      <c r="CE36" s="6">
+        <v>20</v>
+      </c>
+      <c r="CI36" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK36" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:89" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="Q36" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="T36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI36" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK36" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS36" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW36" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD36" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH36" s="6">
-        <v>5</v>
-      </c>
-      <c r="BL36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN36" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR36" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ36" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA36" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB36" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE36" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="CG36" s="6">
-        <v>10</v>
-      </c>
-      <c r="CK36" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="CL36" s="3"/>
-      <c r="CM36" s="6">
-        <v>20</v>
-      </c>
-      <c r="CQ36" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="CS36" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="F37" s="7">
         <v>44183</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y37" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR37" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK37" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR37" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS37" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV37" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT37" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU37" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW37" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ37" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD37" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC37" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL37" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR37" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS37" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT37" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="BE37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH37" s="6">
-        <v>5</v>
-      </c>
-      <c r="BL37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN37" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR37" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU37" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ37" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA37" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB37" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE37" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="CG37" s="6">
+      <c r="BW37" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY37" s="6">
         <v>10</v>
       </c>
-      <c r="CK37" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="CL37" s="3"/>
-      <c r="CM37" s="6">
+      <c r="CC37" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD37" s="3"/>
+      <c r="CE37" s="6">
         <v>20</v>
       </c>
-      <c r="CQ37" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="CS37" s="6">
+      <c r="CI37" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK37" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:97" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:89" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F38" s="7">
         <v>44183</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R38" s="18" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y38" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI38" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK38" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP38" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AQ38" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR38" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AS38" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV38" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU38" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW38" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ38" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD38" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF38" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX38" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH38" s="6">
+      <c r="BC38" s="6">
         <v>5</v>
       </c>
+      <c r="BG38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK38" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL38" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM38" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN38" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ38" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="BR38" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU38" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY38" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ38" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA38" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="CE38" s="6" t="s">
-        <v>214</v>
+        <v>177</v>
+      </c>
+      <c r="BS38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW38" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F39" s="7">
         <v>44183</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="R39" s="18" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI39" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR39" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS39" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV39" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT39" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU39" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW39" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ39" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD39" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF39" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH39" s="6">
+      <c r="BC39" s="6">
         <v>5</v>
       </c>
+      <c r="BG39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK39" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM39" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN39" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ39" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="BR39" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU39" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ39" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA39" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="CE39" s="6" t="s">
-        <v>214</v>
+        <v>177</v>
+      </c>
+      <c r="BS39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW39" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="4" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F40" s="10">
         <v>44246</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F41" s="10">
         <v>44249</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="Q41" s="17" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="R41" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y41" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI41" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK41" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP41" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AQ41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD41" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE41" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW41" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX41" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH41" s="6">
+      <c r="BC41" s="6">
         <v>5</v>
       </c>
+      <c r="BG41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK41" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL41" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM41" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN41" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ41" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR41" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY41" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F42" s="7">
         <v>44327</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="R42" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA42" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ42" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR42" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS42" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV42" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT42" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU42" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW42" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ42" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD42" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE42" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF42" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH42" s="6">
+      <c r="BC42" s="6">
         <v>5</v>
       </c>
+      <c r="BG42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK42" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM42" s="6" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="BN42" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU42" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY42" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F43" s="7">
         <v>44327</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="R43" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y43" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA43" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF43" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI43" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR43" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK43" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ43" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR43" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS43" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV43" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU43" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW43" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ43" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD43" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF43" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX43" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH43" s="6">
+      <c r="BC43" s="6">
         <v>5</v>
       </c>
+      <c r="BG43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK43" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL43" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM43" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN43" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ43" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR43" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU43" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY43" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F44" s="7">
         <v>44327</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="R44" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF44" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR44" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK44" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ44" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR44" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS44" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV44" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT44" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU44" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW44" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ44" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD44" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF44" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="BH44" s="6">
+        <v>177</v>
+      </c>
+      <c r="AX44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC44" s="6">
         <v>5</v>
       </c>
+      <c r="BG44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK44" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL44" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM44" s="6" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BN44" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ44" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR44" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU44" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY44" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F45" s="7">
         <v>44327</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="Q45" s="17" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="R45" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="U45" s="6">
         <v>20</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y45" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC45" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AF45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI45" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK45" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="AG45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP45" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AQ45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD45" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF45" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="AS45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK45" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="BL45" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM45" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="BN45" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="BQ45" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR45" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="BU45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY45" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F46" s="7">
         <v>44524</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Q46" s="17" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="R46" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG46" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ46" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK46" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ46" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR46" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS46" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV46" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW46" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY46" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="AT46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ46" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F47" s="7">
         <v>44524</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="R47" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI47" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK47" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ47" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR47" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS47" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV47" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT47" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU47" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW47" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ47" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD47" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF47" s="6" t="s">
-        <v>354</v>
+        <v>177</v>
+      </c>
+      <c r="AX47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY47" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="BG47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK47" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="BL47" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM47" s="6" t="s">
-        <v>157</v>
+        <v>481</v>
+      </c>
+      <c r="BM47" s="6">
+        <v>0.7</v>
       </c>
       <c r="BN47" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ47" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR47" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BU47" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY47" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:97" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:89" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F48" s="7">
         <v>44524</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="Q48" s="17" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="R48" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="U48" s="6">
         <v>20</v>
       </c>
       <c r="V48" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y48" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC48" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI48" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK48" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="AG48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP48" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AQ48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD48" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF48" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="AS48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI48" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK48" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="BL48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM48" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="BN48" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="BQ48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR48" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="BU48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY48" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F49" s="7">
         <v>44524</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="Q49" s="17" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="R49" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V49" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI49" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG49" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ49" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK49" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR49" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS49" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV49" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT49" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU49" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW49" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD49" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE49" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX49" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BH49" s="6">
+      <c r="BC49" s="6">
         <v>5</v>
       </c>
+      <c r="BG49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK49" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM49" s="6" t="s">
-        <v>157</v>
+        <v>481</v>
+      </c>
+      <c r="BM49" s="6">
+        <v>0.7</v>
       </c>
       <c r="BN49" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR49" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BU49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY49" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F50" s="7">
         <v>44524</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N50" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="P50" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="O50" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="P50" s="17" t="s">
-        <v>461</v>
-      </c>
       <c r="Q50" s="17" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="R50" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF50" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI50" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR50" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ50" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK50" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR50" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AS50" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV50" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT50" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU50" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW50" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ50" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD50" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE50" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF50" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="BH50" s="6">
+        <v>177</v>
+      </c>
+      <c r="AX50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY50" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC50" s="6">
         <v>5</v>
       </c>
+      <c r="BG50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK50" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM50" s="6" t="s">
-        <v>157</v>
+        <v>481</v>
+      </c>
+      <c r="BM50" s="6">
+        <v>0.7</v>
       </c>
       <c r="BN50" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR50" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BU50" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY50" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F51" s="7">
         <v>44722</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M51" s="17" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="R51" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y51" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI51" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ51" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN51" s="6">
+        <v>162</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM51" s="6">
         <v>5</v>
       </c>
+      <c r="AP51" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="AQ51" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR51" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS51" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV51" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU51" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW51" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD51" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE51" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF51" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="BH51" s="6">
+        <v>177</v>
+      </c>
+      <c r="AX51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC51" s="6">
         <v>5</v>
       </c>
+      <c r="BG51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK51" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="BL51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM51" s="6" t="s">
-        <v>157</v>
+        <v>481</v>
+      </c>
+      <c r="BM51" s="6">
+        <v>0.8</v>
       </c>
       <c r="BN51" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BQ51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR51" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="BU51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY51" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F52" s="7">
         <v>44729</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R52" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V52" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI52" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ52" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN52" s="6">
+        <v>162</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM52" s="6">
         <v>5</v>
       </c>
+      <c r="AP52" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="AQ52" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR52" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV52" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="AT52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU52" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="AW52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ52" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD52" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE52" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF52" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX52" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BH52" s="6">
+      <c r="BC52" s="6">
         <v>5</v>
       </c>
-      <c r="BL52" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY52" s="6" t="s">
-        <v>150</v>
+      <c r="BG52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ52" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="F53" s="7">
         <v>44729</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M53" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="P53" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="N53" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="P53" s="17" t="s">
-        <v>491</v>
-      </c>
       <c r="Q53" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="R53" s="17" t="s">
         <v>38</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y53" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AF53" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI53" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ53" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN53" s="6">
+        <v>162</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM53" s="6">
         <v>5</v>
       </c>
+      <c r="AP53" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="AQ53" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AR53" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS53" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW53" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ53" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BE53" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BH53" s="6">
+        <v>144</v>
+      </c>
+      <c r="AT53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU53" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC53" s="6">
         <v>5</v>
       </c>
-      <c r="BL53" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY53" s="6" t="s">
-        <v>150</v>
+      <c r="BG53" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ53" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:100" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F54" s="7">
         <v>44775</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Y54" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ54" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD54" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="BE54" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL54" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY54" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="AP54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW54" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AX54" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ54" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:100" ht="42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:92" ht="42" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -8591,148 +8538,136 @@
         <v>39</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U55" s="6">
         <v>20</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB55" s="6">
+        <v>137</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL55" s="6">
         <v>5</v>
       </c>
-      <c r="AC55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AF55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AJ55" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="AM55" s="6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AN55" s="6">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AO55" s="6">
-        <v>100</v>
-      </c>
-      <c r="AP55" s="6">
         <v>400</v>
       </c>
+      <c r="AP55" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="AQ55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AU55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AY55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AZ55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB55" s="6">
-        <v>5</v>
+        <v>137</v>
+      </c>
+      <c r="AS55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX55" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="BC55" s="6">
         <v>5</v>
       </c>
-      <c r="BE55" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BH55" s="6">
+      <c r="BD55" s="6">
+        <v>24</v>
+      </c>
+      <c r="BE55" s="6">
+        <v>100</v>
+      </c>
+      <c r="BF55" s="6">
+        <v>400</v>
+      </c>
+      <c r="BG55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ55" s="6">
         <v>5</v>
       </c>
-      <c r="BI55" s="6">
-        <v>24</v>
-      </c>
-      <c r="BJ55" s="6">
-        <v>100</v>
-      </c>
-      <c r="BK55" s="6">
-        <v>400</v>
-      </c>
-      <c r="BL55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO55" s="6">
-        <v>5</v>
+      <c r="BK55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM55" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="BN55" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="BP55" s="6">
         <v>5</v>
       </c>
       <c r="BQ55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BS55" s="6">
+        <v>137</v>
+      </c>
+      <c r="BR55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS55" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU55" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="BV55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW55" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX55" s="6">
+        <v>50</v>
+      </c>
+      <c r="BY55" s="6">
         <v>5</v>
       </c>
-      <c r="BT55" s="6">
+      <c r="BZ55" s="6">
         <v>5</v>
       </c>
-      <c r="BU55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BW55" s="6">
+      <c r="CA55" s="6">
         <v>5</v>
       </c>
-      <c r="BX55" s="6">
+      <c r="CB55" s="6">
         <v>5</v>
       </c>
-      <c r="BY55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BZ55" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="CA55" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB55" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="CC55" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="CD55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="CE55" s="6" t="s">
-        <v>153</v>
+      <c r="CC55" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD55" s="6">
+        <v>5</v>
+      </c>
+      <c r="CE55" s="6">
+        <v>5</v>
       </c>
       <c r="CF55" s="6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="CG55" s="6">
         <v>5</v>
@@ -8740,14 +8675,14 @@
       <c r="CH55" s="6">
         <v>5</v>
       </c>
-      <c r="CI55" s="6">
-        <v>5</v>
+      <c r="CI55" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="CJ55" s="6">
         <v>5</v>
       </c>
-      <c r="CK55" s="6" t="s">
-        <v>154</v>
+      <c r="CK55" s="6">
+        <v>5</v>
       </c>
       <c r="CL55" s="6">
         <v>5</v>
@@ -8756,30 +8691,6 @@
         <v>5</v>
       </c>
       <c r="CN55" s="6">
-        <v>5</v>
-      </c>
-      <c r="CO55" s="6">
-        <v>5</v>
-      </c>
-      <c r="CP55" s="6">
-        <v>5</v>
-      </c>
-      <c r="CQ55" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CR55" s="6">
-        <v>5</v>
-      </c>
-      <c r="CS55" s="6">
-        <v>5</v>
-      </c>
-      <c r="CT55" s="6">
-        <v>5</v>
-      </c>
-      <c r="CU55" s="6">
-        <v>5</v>
-      </c>
-      <c r="CV55" s="6">
         <v>5</v>
       </c>
     </row>

--- a/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
+++ b/app/data/wto_proposal_settings_master_FINAL_AGREEMENT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/Github/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37109A7-3070-E44B-A447-96FD4A463A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1CB18-5503-394B-880B-3BDD65C0477B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61600" yWindow="-2480" windowWidth="23760" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35180" yWindow="-2480" windowWidth="50180" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="487">
   <si>
     <t>proposal</t>
   </si>
@@ -1432,15 +1432,6 @@
     <t>WT/MIN(22)/W/22 | No prohibition for HS fishing</t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale wehther vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond Members' national jurisdictions. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas to be prohibited. We note that this may be an amibitious interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>Final Fisheries Subsidies Agreement</t>
-  </si>
-  <si>
-    <t>WT/MIN(22)/W/22</t>
-  </si>
-  <si>
     <t>Final WTO Fisheries Subsidies Agreement</t>
   </si>
   <si>
@@ -1466,6 +1457,30 @@
   </si>
   <si>
     <t>TER/CAPTURE</t>
+  </si>
+  <si>
+    <t>Final Fisheries Subsidies Agreement [complete HS prohibition]</t>
+  </si>
+  <si>
+    <t>Final WTO Fisheries Subsidies Agreement - HS portion only applies to vessels that are not longline or purse seine</t>
+  </si>
+  <si>
+    <t>Final Fisheries Subsidies Agreement [non-tuna HS prohibition]</t>
+  </si>
+  <si>
+    <t>WT/MIN(22)/W/22 | Complete prohibition for HS fishing</t>
+  </si>
+  <si>
+    <t>WT/MIN(22)/W/22 | Non-tuna prohibition for HS fishing</t>
+  </si>
+  <si>
+    <t>HS/TUNA</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale wehther vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond Members' national jurisdictions. By default, we consider vessels spending at least 5% of their total annual effort fishing on the high seas to be affected. We note that this may be an amibitious interpretation of this prohibition.&lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) to fishing in areas beyond the subsidizing Member's national jurisdiction and outside the competence of regional fisheries management organizations or agreements (RFMO/As).&lt;/li&gt;&lt;li&gt;Very few areas of the ocean are not under the jurisdiction of a RFMO/A, but it is difficult to determine on a global scale whether vessels are fishing for species governed by those RFMO/As at any given point in time.&lt;/li&gt;&lt;li&gt;We therefore assume that all capacity-enhancing an ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to non-tuna vessels fishing in areas beyond Members' national jurisdictions. We assume vessels utilizing the following gear types to be tuna fishing vessels: purse seines, drifting longlines, and pole and line. By default, we consider non-tuna fishing vessels spending at least 5% of their total annual effort fishing on the high seas to be affected. &lt;/li&gt;&lt;li&gt;For the purposes of modeling, the rules on reflagging and unassessed stocks are not considered.&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -2417,11 +2432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN55"/>
+  <dimension ref="A1:CN56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BM60" sqref="BM60"/>
+      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2553,10 +2568,10 @@
         <v>12</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AL1" s="3" t="s">
         <v>13</v>
@@ -2604,10 +2619,10 @@
         <v>18</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="BC1" s="3" t="s">
         <v>19</v>
@@ -2640,7 +2655,7 @@
         <v>132</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="BN1" s="3" t="s">
         <v>133</v>
@@ -7636,7 +7651,7 @@
         <v>144</v>
       </c>
       <c r="BL47" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="BM47" s="6">
         <v>0.7</v>
@@ -7913,7 +7928,7 @@
         <v>144</v>
       </c>
       <c r="BL49" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="BM49" s="6">
         <v>0.7</v>
@@ -8059,7 +8074,7 @@
         <v>144</v>
       </c>
       <c r="BL50" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="BM50" s="6">
         <v>0.7</v>
@@ -8103,7 +8118,7 @@
         <v>456</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L51" s="17" t="s">
         <v>438</v>
@@ -8159,9 +8174,6 @@
       <c r="AG51" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AM51" s="6">
-        <v>5</v>
-      </c>
       <c r="AP51" s="6" t="s">
         <v>144</v>
       </c>
@@ -8205,7 +8217,7 @@
         <v>144</v>
       </c>
       <c r="BL51" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="BM51" s="6">
         <v>0.8</v>
@@ -8225,19 +8237,19 @@
         <v>289</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>452</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F52" s="7">
         <v>44729</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>39</v>
@@ -8264,7 +8276,7 @@
         <v>461</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="Q52" s="17" t="s">
         <v>223</v>
@@ -8304,9 +8316,6 @@
       </c>
       <c r="AG52" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="AM52" s="6">
-        <v>5</v>
       </c>
       <c r="AP52" s="6" t="s">
         <v>144</v>
@@ -8347,7 +8356,7 @@
     </row>
     <row r="53" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>448</v>
+        <v>39</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>289</v>
@@ -8392,7 +8401,7 @@
         <v>461</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q53" s="17" t="s">
         <v>223</v>
@@ -8432,9 +8441,6 @@
       </c>
       <c r="AG53" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="AM53" s="6">
-        <v>5</v>
       </c>
       <c r="AP53" s="6" t="s">
         <v>144</v>
@@ -8469,50 +8475,121 @@
     </row>
     <row r="54" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>448</v>
+        <v>39</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="D54" s="8"/>
+        <v>480</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="E54" s="8" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="F54" s="7">
-        <v>44775</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>466</v>
+        <v>44729</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="I54" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="L54" s="17" t="s">
-        <v>225</v>
+        <v>438</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>460</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>225</v>
+        <v>431</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>461</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>464</v>
+        <v>486</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="R54" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="T54" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="V54" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="Y54" s="6" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="Z54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="AP54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU54" s="6" t="s">
         <v>137</v>
       </c>
       <c r="AW54" s="6" t="s">
-        <v>465</v>
+        <v>177</v>
       </c>
       <c r="AX54" s="6" t="s">
-        <v>136</v>
+        <v>168</v>
+      </c>
+      <c r="AY54" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="BC54" s="6">
+        <v>5</v>
       </c>
       <c r="BG54" s="6" t="s">
         <v>137</v>
@@ -8521,176 +8598,230 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:92" ht="42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:92" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>448</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" s="7">
+        <v>44775</v>
+      </c>
       <c r="G55" s="6" t="s">
-        <v>51</v>
+        <v>466</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="L55" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>464</v>
+      </c>
       <c r="T55" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="U55" s="6">
+      <c r="Y55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW55" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AX55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ55" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:92" ht="42" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="G56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U56" s="6">
         <v>20</v>
       </c>
-      <c r="V55" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG55" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL55" s="6">
+      <c r="V56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL56" s="6">
         <v>5</v>
       </c>
-      <c r="AM55" s="6">
+      <c r="AM56" s="6">
         <v>24</v>
       </c>
-      <c r="AN55" s="6">
+      <c r="AN56" s="6">
         <v>100</v>
       </c>
-      <c r="AO55" s="6">
+      <c r="AO56" s="6">
         <v>400</v>
       </c>
-      <c r="AP55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX55" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC55" s="6">
+      <c r="AP56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC56" s="6">
         <v>5</v>
       </c>
-      <c r="BD55" s="6">
+      <c r="BD56" s="6">
         <v>24</v>
       </c>
-      <c r="BE55" s="6">
+      <c r="BE56" s="6">
         <v>100</v>
       </c>
-      <c r="BF55" s="6">
+      <c r="BF56" s="6">
         <v>400</v>
       </c>
-      <c r="BG55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ55" s="6">
+      <c r="BG56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ56" s="6">
         <v>5</v>
       </c>
-      <c r="BK55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BM55" s="6">
+      <c r="BK56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM56" s="6">
         <v>0.7</v>
       </c>
-      <c r="BN55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP55" s="6">
+      <c r="BN56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP56" s="6">
         <v>5</v>
       </c>
-      <c r="BQ55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR55" s="6" t="s">
+      <c r="BQ56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BS55" s="6" t="s">
+      <c r="BS56" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BT55" s="6" t="s">
+      <c r="BT56" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="BU55" s="6">
+      <c r="BU56" s="6">
         <v>0.7</v>
       </c>
-      <c r="BV55" s="6" t="s">
+      <c r="BV56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="6" t="s">
+      <c r="BW56" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="BX55" s="6">
+      <c r="BX56" s="6">
         <v>50</v>
       </c>
-      <c r="BY55" s="6">
+      <c r="BY56" s="6">
         <v>5</v>
       </c>
-      <c r="BZ55" s="6">
+      <c r="BZ56" s="6">
         <v>5</v>
       </c>
-      <c r="CA55" s="6">
+      <c r="CA56" s="6">
         <v>5</v>
       </c>
-      <c r="CB55" s="6">
+      <c r="CB56" s="6">
         <v>5</v>
       </c>
-      <c r="CC55" s="6" t="s">
+      <c r="CC56" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="CD55" s="6">
+      <c r="CD56" s="6">
         <v>5</v>
       </c>
-      <c r="CE55" s="6">
+      <c r="CE56" s="6">
         <v>5</v>
       </c>
-      <c r="CF55" s="6">
+      <c r="CF56" s="6">
         <v>5</v>
       </c>
-      <c r="CG55" s="6">
+      <c r="CG56" s="6">
         <v>5</v>
       </c>
-      <c r="CH55" s="6">
+      <c r="CH56" s="6">
         <v>5</v>
       </c>
-      <c r="CI55" s="6" t="s">
+      <c r="CI56" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="CJ55" s="6">
+      <c r="CJ56" s="6">
         <v>5</v>
       </c>
-      <c r="CK55" s="6">
+      <c r="CK56" s="6">
         <v>5</v>
       </c>
-      <c r="CL55" s="6">
+      <c r="CL56" s="6">
         <v>5</v>
       </c>
-      <c r="CM55" s="6">
+      <c r="CM56" s="6">
         <v>5</v>
       </c>
-      <c r="CN55" s="6">
+      <c r="CN56" s="6">
         <v>5</v>
       </c>
     </row>
